--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -5377,28 +5377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1424.858149481414</v>
+        <v>1583.31570611321</v>
       </c>
       <c r="AB2" t="n">
-        <v>1949.553780425568</v>
+        <v>2166.362400063214</v>
       </c>
       <c r="AC2" t="n">
-        <v>1763.491103837667</v>
+        <v>1959.607813109905</v>
       </c>
       <c r="AD2" t="n">
-        <v>1424858.149481414</v>
+        <v>1583315.70611321</v>
       </c>
       <c r="AE2" t="n">
-        <v>1949553.780425568</v>
+        <v>2166362.400063214</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.844947118660105e-07</v>
+        <v>1.08146824610153e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.00260416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1763491.103837667</v>
+        <v>1959607.813109905</v>
       </c>
     </row>
     <row r="3">
@@ -5483,28 +5483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000.804736580426</v>
+        <v>1122.675491371188</v>
       </c>
       <c r="AB3" t="n">
-        <v>1369.345192978199</v>
+        <v>1536.094136241161</v>
       </c>
       <c r="AC3" t="n">
-        <v>1238.656809648408</v>
+        <v>1389.491467799964</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000804.736580426</v>
+        <v>1122675.491371188</v>
       </c>
       <c r="AE3" t="n">
-        <v>1369345.192978199</v>
+        <v>1536094.136241161</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.546776496167024e-07</v>
+        <v>1.396351237289033e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.13671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1238656.809648408</v>
+        <v>1389491.467799964</v>
       </c>
     </row>
     <row r="4">
@@ -5589,28 +5589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>884.4139163071118</v>
+        <v>994.0890704841948</v>
       </c>
       <c r="AB4" t="n">
-        <v>1210.094137879655</v>
+        <v>1360.156522351056</v>
       </c>
       <c r="AC4" t="n">
-        <v>1094.60445173821</v>
+        <v>1230.34509284954</v>
       </c>
       <c r="AD4" t="n">
-        <v>884413.9163071117</v>
+        <v>994089.0704841949</v>
       </c>
       <c r="AE4" t="n">
-        <v>1210094.137879655</v>
+        <v>1360156.522351056</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.226481220800154e-07</v>
+        <v>1.522114406996618e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.47005208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1094604.45173821</v>
+        <v>1230345.09284954</v>
       </c>
     </row>
     <row r="5">
@@ -5695,28 +5695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>829.327409412487</v>
+        <v>939.0878149355906</v>
       </c>
       <c r="AB5" t="n">
-        <v>1134.722348901263</v>
+        <v>1284.901378025314</v>
       </c>
       <c r="AC5" t="n">
-        <v>1026.426040514945</v>
+        <v>1162.272193876988</v>
       </c>
       <c r="AD5" t="n">
-        <v>829327.4094124869</v>
+        <v>939087.8149355906</v>
       </c>
       <c r="AE5" t="n">
-        <v>1134722.348901263</v>
+        <v>1284901.378025314</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.584306544585386e-07</v>
+        <v>1.588321460280179e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.70182291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1026426.040514946</v>
+        <v>1162272.193876988</v>
       </c>
     </row>
     <row r="6">
@@ -5801,28 +5801,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>803.1223551259809</v>
+        <v>912.7121684484924</v>
       </c>
       <c r="AB6" t="n">
-        <v>1098.867437541063</v>
+        <v>1248.813054890267</v>
       </c>
       <c r="AC6" t="n">
-        <v>993.9930715722784</v>
+        <v>1129.62808965167</v>
       </c>
       <c r="AD6" t="n">
-        <v>803122.3551259809</v>
+        <v>912712.1684484924</v>
       </c>
       <c r="AE6" t="n">
-        <v>1098867.437541063</v>
+        <v>1248813.054890267</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.811186006241775e-07</v>
+        <v>1.630300100718288e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.24609375</v>
       </c>
       <c r="AH6" t="n">
-        <v>993993.0715722784</v>
+        <v>1129628.08965167</v>
       </c>
     </row>
     <row r="7">
@@ -5907,28 +5907,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>770.2209160975815</v>
+        <v>879.8959807661133</v>
       </c>
       <c r="AB7" t="n">
-        <v>1053.85023715336</v>
+        <v>1203.912499155212</v>
       </c>
       <c r="AC7" t="n">
-        <v>953.2722496075397</v>
+        <v>1089.012779937643</v>
       </c>
       <c r="AD7" t="n">
-        <v>770220.9160975815</v>
+        <v>879895.9807661134</v>
       </c>
       <c r="AE7" t="n">
-        <v>1053850.237153359</v>
+        <v>1203912.499155212</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.979711696896006e-07</v>
+        <v>1.661481765735073e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.92057291666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>953272.2496075397</v>
+        <v>1089012.779937643</v>
       </c>
     </row>
     <row r="8">
@@ -6013,28 +6013,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>758.1749850958676</v>
+        <v>867.8500497643994</v>
       </c>
       <c r="AB8" t="n">
-        <v>1037.368462927845</v>
+        <v>1187.430724929698</v>
       </c>
       <c r="AC8" t="n">
-        <v>938.363472781793</v>
+        <v>1074.104003111896</v>
       </c>
       <c r="AD8" t="n">
-        <v>758174.9850958675</v>
+        <v>867850.0497643994</v>
       </c>
       <c r="AE8" t="n">
-        <v>1037368.462927845</v>
+        <v>1187430.724929698</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.076345541675578e-07</v>
+        <v>1.679361557032786e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.74479166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>938363.472781793</v>
+        <v>1074104.003111896</v>
       </c>
     </row>
     <row r="9">
@@ -6119,28 +6119,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>745.5667091878139</v>
+        <v>855.2417738563457</v>
       </c>
       <c r="AB9" t="n">
-        <v>1020.11726359257</v>
+        <v>1170.179525594423</v>
       </c>
       <c r="AC9" t="n">
-        <v>922.7587036988665</v>
+        <v>1058.49923402897</v>
       </c>
       <c r="AD9" t="n">
-        <v>745566.7091878139</v>
+        <v>855241.7738563457</v>
       </c>
       <c r="AE9" t="n">
-        <v>1020117.26359257</v>
+        <v>1170179.525594423</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.163175952926788e-07</v>
+        <v>1.695427456459717e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.58203125</v>
       </c>
       <c r="AH9" t="n">
-        <v>922758.7036988665</v>
+        <v>1058499.23402897</v>
       </c>
     </row>
     <row r="10">
@@ -6225,28 +6225,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>735.4862012587298</v>
+        <v>832.9657548221346</v>
       </c>
       <c r="AB10" t="n">
-        <v>1006.324667923374</v>
+        <v>1139.700493603214</v>
       </c>
       <c r="AC10" t="n">
-        <v>910.2824540023091</v>
+        <v>1030.929078073412</v>
       </c>
       <c r="AD10" t="n">
-        <v>735486.2012587298</v>
+        <v>832965.7548221346</v>
       </c>
       <c r="AE10" t="n">
-        <v>1006324.667923374</v>
+        <v>1139700.493603214</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.225497780357091e-07</v>
+        <v>1.706958626209691e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.47135416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>910282.4540023091</v>
+        <v>1030929.078073412</v>
       </c>
     </row>
     <row r="11">
@@ -6331,28 +6331,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>726.9446385131566</v>
+        <v>824.4241920765616</v>
       </c>
       <c r="AB11" t="n">
-        <v>994.6377249477282</v>
+        <v>1128.013550627568</v>
       </c>
       <c r="AC11" t="n">
-        <v>899.7108964615311</v>
+        <v>1020.357520532634</v>
       </c>
       <c r="AD11" t="n">
-        <v>726944.6385131567</v>
+        <v>824424.1920765615</v>
       </c>
       <c r="AE11" t="n">
-        <v>994637.7249477282</v>
+        <v>1128013.550627568</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.283851551359249e-07</v>
+        <v>1.717755601631015e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.3671875</v>
       </c>
       <c r="AH11" t="n">
-        <v>899710.8964615311</v>
+        <v>1020357.520532634</v>
       </c>
     </row>
     <row r="12">
@@ -6437,28 +6437,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>717.0389855792968</v>
+        <v>814.5185391427017</v>
       </c>
       <c r="AB12" t="n">
-        <v>981.084373597056</v>
+        <v>1114.460199276896</v>
       </c>
       <c r="AC12" t="n">
-        <v>887.4510579415187</v>
+        <v>1008.097682012622</v>
       </c>
       <c r="AD12" t="n">
-        <v>717038.9855792967</v>
+        <v>814518.5391427017</v>
       </c>
       <c r="AE12" t="n">
-        <v>981084.373597056</v>
+        <v>1114460.199276896</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.33310213408507e-07</v>
+        <v>1.726868248886613e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.28255208333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>887451.0579415187</v>
+        <v>1008097.682012622</v>
       </c>
     </row>
     <row r="13">
@@ -6543,28 +6543,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>707.1351123136546</v>
+        <v>804.6146658770593</v>
       </c>
       <c r="AB13" t="n">
-        <v>967.5334572669528</v>
+        <v>1100.909282946792</v>
       </c>
       <c r="AC13" t="n">
-        <v>875.1934220471301</v>
+        <v>995.840046118233</v>
       </c>
       <c r="AD13" t="n">
-        <v>707135.1123136546</v>
+        <v>804614.6658770593</v>
       </c>
       <c r="AE13" t="n">
-        <v>967533.4572669528</v>
+        <v>1100909.282946792</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.379551735802787e-07</v>
+        <v>1.735462641321987e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.20442708333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>875193.4220471301</v>
+        <v>995840.046118233</v>
       </c>
     </row>
     <row r="14">
@@ -6649,28 +6649,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>703.0375399489096</v>
+        <v>800.5170935123147</v>
       </c>
       <c r="AB14" t="n">
-        <v>961.9269779853744</v>
+        <v>1095.302803665214</v>
       </c>
       <c r="AC14" t="n">
-        <v>870.1220172794424</v>
+        <v>990.7686413505453</v>
       </c>
       <c r="AD14" t="n">
-        <v>703037.5399489097</v>
+        <v>800517.0935123146</v>
       </c>
       <c r="AE14" t="n">
-        <v>961926.9779853744</v>
+        <v>1095302.803665214</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.397291282187443e-07</v>
+        <v>1.73874492185007e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.171875</v>
       </c>
       <c r="AH14" t="n">
-        <v>870122.0172794424</v>
+        <v>990768.6413505453</v>
       </c>
     </row>
     <row r="15">
@@ -6755,28 +6755,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>695.3034827451695</v>
+        <v>792.7830363085743</v>
       </c>
       <c r="AB15" t="n">
-        <v>951.344899716694</v>
+        <v>1084.720725396534</v>
       </c>
       <c r="AC15" t="n">
-        <v>860.5498777086847</v>
+        <v>981.1965017797879</v>
       </c>
       <c r="AD15" t="n">
-        <v>695303.4827451695</v>
+        <v>792783.0363085743</v>
       </c>
       <c r="AE15" t="n">
-        <v>951344.899716694</v>
+        <v>1084720.725396534</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.419465715168264e-07</v>
+        <v>1.742847772510173e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.1328125</v>
       </c>
       <c r="AH15" t="n">
-        <v>860549.8777086847</v>
+        <v>981196.5017797879</v>
       </c>
     </row>
     <row r="16">
@@ -6861,28 +6861,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>684.6097621226544</v>
+        <v>782.0893156860593</v>
       </c>
       <c r="AB16" t="n">
-        <v>936.7132793873112</v>
+        <v>1070.089105067151</v>
       </c>
       <c r="AC16" t="n">
-        <v>847.3146786879302</v>
+        <v>967.9613027590332</v>
       </c>
       <c r="AD16" t="n">
-        <v>684609.7621226544</v>
+        <v>782089.3156860593</v>
       </c>
       <c r="AE16" t="n">
-        <v>936713.2793873112</v>
+        <v>1070089.105067151</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.471283863818178e-07</v>
+        <v>1.752435486684309e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.04166666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>847314.6786879301</v>
+        <v>967961.3027590332</v>
       </c>
     </row>
     <row r="17">
@@ -6967,28 +6967,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>676.9719239160091</v>
+        <v>774.4514774794141</v>
       </c>
       <c r="AB17" t="n">
-        <v>926.2628521953388</v>
+        <v>1059.638677875179</v>
       </c>
       <c r="AC17" t="n">
-        <v>837.8616255998928</v>
+        <v>958.508249670996</v>
       </c>
       <c r="AD17" t="n">
-        <v>676971.9239160091</v>
+        <v>774451.4774794141</v>
       </c>
       <c r="AE17" t="n">
-        <v>926262.8521953388</v>
+        <v>1059638.677875179</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.48972365545486e-07</v>
+        <v>1.755847330917447e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.015625</v>
       </c>
       <c r="AH17" t="n">
-        <v>837861.6255998928</v>
+        <v>958508.249670996</v>
       </c>
     </row>
     <row r="18">
@@ -7073,28 +7073,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>674.5019037957045</v>
+        <v>771.9814573591093</v>
       </c>
       <c r="AB18" t="n">
-        <v>922.8832616971407</v>
+        <v>1056.259087376981</v>
       </c>
       <c r="AC18" t="n">
-        <v>834.8045784755577</v>
+        <v>955.4512025466607</v>
       </c>
       <c r="AD18" t="n">
-        <v>674501.9037957045</v>
+        <v>771981.4573591093</v>
       </c>
       <c r="AE18" t="n">
-        <v>922883.2616971408</v>
+        <v>1056259.087376981</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.492057806294947e-07</v>
+        <v>1.756279209934301e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.00911458333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>834804.5784755577</v>
+        <v>955451.2025466608</v>
       </c>
     </row>
     <row r="19">
@@ -7179,28 +7179,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>655.6128358387881</v>
+        <v>765.2025596527483</v>
       </c>
       <c r="AB19" t="n">
-        <v>897.0384055916227</v>
+        <v>1046.983900471278</v>
       </c>
       <c r="AC19" t="n">
-        <v>811.4263191632671</v>
+        <v>947.0612264614317</v>
       </c>
       <c r="AD19" t="n">
-        <v>655612.8358387881</v>
+        <v>765202.5596527483</v>
       </c>
       <c r="AE19" t="n">
-        <v>897038.4055916227</v>
+        <v>1046983.900471278</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.512131503519688e-07</v>
+        <v>1.759993369479236e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>15.9765625</v>
       </c>
       <c r="AH19" t="n">
-        <v>811426.319163267</v>
+        <v>947061.2264614317</v>
       </c>
     </row>
     <row r="20">
@@ -7285,28 +7285,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>656.9001021164026</v>
+        <v>766.4898259303631</v>
       </c>
       <c r="AB20" t="n">
-        <v>898.7997001028353</v>
+        <v>1048.74519498249</v>
       </c>
       <c r="AC20" t="n">
-        <v>813.0195181983216</v>
+        <v>948.6544254964863</v>
       </c>
       <c r="AD20" t="n">
-        <v>656900.1021164027</v>
+        <v>766489.825930363</v>
       </c>
       <c r="AE20" t="n">
-        <v>898799.7001028353</v>
+        <v>1048745.19498249</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.508630277259558e-07</v>
+        <v>1.759345550953956e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>15.98307291666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>813019.5181983217</v>
+        <v>948654.4254964862</v>
       </c>
     </row>
     <row r="21">
@@ -7391,28 +7391,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>658.5833060328343</v>
+        <v>768.1730298467946</v>
       </c>
       <c r="AB21" t="n">
-        <v>901.102733959013</v>
+        <v>1051.048228838668</v>
       </c>
       <c r="AC21" t="n">
-        <v>815.1027537355943</v>
+        <v>950.7376610337589</v>
       </c>
       <c r="AD21" t="n">
-        <v>658583.3060328343</v>
+        <v>768173.0298467947</v>
       </c>
       <c r="AE21" t="n">
-        <v>901102.733959013</v>
+        <v>1051048.228838668</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.508630277259558e-07</v>
+        <v>1.759345550953956e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>15.98307291666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>815102.7537355943</v>
+        <v>950737.6610337589</v>
       </c>
     </row>
   </sheetData>
@@ -7688,28 +7688,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1122.744393158622</v>
+        <v>1263.738346550637</v>
       </c>
       <c r="AB2" t="n">
-        <v>1536.188410706461</v>
+        <v>1729.102557951639</v>
       </c>
       <c r="AC2" t="n">
-        <v>1389.576744842612</v>
+        <v>1564.079436631415</v>
       </c>
       <c r="AD2" t="n">
-        <v>1122744.393158622</v>
+        <v>1263738.346550637</v>
       </c>
       <c r="AE2" t="n">
-        <v>1536188.410706461</v>
+        <v>1729102.557951638</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.756180591868515e-07</v>
+        <v>1.287832290565768e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.26822916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1389576.744842612</v>
+        <v>1564079.436631415</v>
       </c>
     </row>
     <row r="3">
@@ -7794,28 +7794,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>831.1962048534429</v>
+        <v>948.7479853260436</v>
       </c>
       <c r="AB3" t="n">
-        <v>1137.279317269015</v>
+        <v>1298.118849330171</v>
       </c>
       <c r="AC3" t="n">
-        <v>1028.738975410407</v>
+        <v>1174.228208271347</v>
       </c>
       <c r="AD3" t="n">
-        <v>831196.2048534428</v>
+        <v>948747.9853260436</v>
       </c>
       <c r="AE3" t="n">
-        <v>1137279.317269015</v>
+        <v>1298118.849330171</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.316766552027421e-07</v>
+        <v>1.585304059469505e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.89973958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1028738.975410407</v>
+        <v>1174228.208271347</v>
       </c>
     </row>
     <row r="4">
@@ -7900,28 +7900,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>754.3393536184747</v>
+        <v>860.2127628129297</v>
       </c>
       <c r="AB4" t="n">
-        <v>1032.120382724358</v>
+        <v>1176.981051989376</v>
       </c>
       <c r="AC4" t="n">
-        <v>933.6162619871996</v>
+        <v>1064.651632290791</v>
       </c>
       <c r="AD4" t="n">
-        <v>754339.3536184747</v>
+        <v>860212.7628129297</v>
       </c>
       <c r="AE4" t="n">
-        <v>1032120.382724358</v>
+        <v>1176981.051989376</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.913667138985926e-07</v>
+        <v>1.699082523453729e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.63671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>933616.2619871995</v>
+        <v>1064651.632290791</v>
       </c>
     </row>
     <row r="5">
@@ -8006,28 +8006,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>722.9935087069935</v>
+        <v>817.1032952772822</v>
       </c>
       <c r="AB5" t="n">
-        <v>989.2316148353908</v>
+        <v>1117.996776651622</v>
       </c>
       <c r="AC5" t="n">
-        <v>894.8207379107918</v>
+        <v>1011.296733406322</v>
       </c>
       <c r="AD5" t="n">
-        <v>722993.5087069934</v>
+        <v>817103.2952772822</v>
       </c>
       <c r="AE5" t="n">
-        <v>989231.6148353908</v>
+        <v>1117996.776651622</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.212841826381389e-07</v>
+        <v>1.756109836106016e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.06380208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>894820.7379107918</v>
+        <v>1011296.733406322</v>
       </c>
     </row>
     <row r="6">
@@ -8112,28 +8112,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>689.7879405716842</v>
+        <v>795.5760089115676</v>
       </c>
       <c r="AB6" t="n">
-        <v>943.7982915863837</v>
+        <v>1088.542193729204</v>
       </c>
       <c r="AC6" t="n">
-        <v>853.7235072666003</v>
+        <v>984.6532545382527</v>
       </c>
       <c r="AD6" t="n">
-        <v>689787.9405716842</v>
+        <v>795576.0089115675</v>
       </c>
       <c r="AE6" t="n">
-        <v>943798.2915863837</v>
+        <v>1088542.193729204</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.402633032428876e-07</v>
+        <v>1.792286969071874e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.71875</v>
       </c>
       <c r="AH6" t="n">
-        <v>853723.5072666004</v>
+        <v>984653.2545382527</v>
       </c>
     </row>
     <row r="7">
@@ -8218,28 +8218,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>674.7126700018467</v>
+        <v>768.7371157175641</v>
       </c>
       <c r="AB7" t="n">
-        <v>923.1716413187334</v>
+        <v>1051.820036012767</v>
       </c>
       <c r="AC7" t="n">
-        <v>835.0654355508091</v>
+        <v>951.4358080144001</v>
       </c>
       <c r="AD7" t="n">
-        <v>674712.6700018467</v>
+        <v>768737.115717564</v>
       </c>
       <c r="AE7" t="n">
-        <v>923171.6413187333</v>
+        <v>1051820.036012767</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.536404442289318e-07</v>
+        <v>1.817785864317529e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.484375</v>
       </c>
       <c r="AH7" t="n">
-        <v>835065.435550809</v>
+        <v>951435.8080144001</v>
       </c>
     </row>
     <row r="8">
@@ -8324,28 +8324,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>660.7323902872487</v>
+        <v>754.756836002966</v>
       </c>
       <c r="AB8" t="n">
-        <v>904.0432058468084</v>
+        <v>1032.691600540842</v>
       </c>
       <c r="AC8" t="n">
-        <v>817.7625911133968</v>
+        <v>934.1329635769879</v>
       </c>
       <c r="AD8" t="n">
-        <v>660732.3902872487</v>
+        <v>754756.836002966</v>
       </c>
       <c r="AE8" t="n">
-        <v>904043.2058468084</v>
+        <v>1032691.600540842</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.638543984475177e-07</v>
+        <v>1.837255237402208e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.30859375</v>
       </c>
       <c r="AH8" t="n">
-        <v>817762.5911133968</v>
+        <v>934132.9635769879</v>
       </c>
     </row>
     <row r="9">
@@ -8430,28 +8430,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>647.9259505531362</v>
+        <v>741.9503962688534</v>
       </c>
       <c r="AB9" t="n">
-        <v>886.520870022349</v>
+        <v>1015.169264716383</v>
       </c>
       <c r="AC9" t="n">
-        <v>801.9125624272709</v>
+        <v>918.2829348908618</v>
       </c>
       <c r="AD9" t="n">
-        <v>647925.9505531362</v>
+        <v>741950.3962688535</v>
       </c>
       <c r="AE9" t="n">
-        <v>886520.8700223489</v>
+        <v>1015169.264716383</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.721607820200794e-07</v>
+        <v>1.853088486435611e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.171875</v>
       </c>
       <c r="AH9" t="n">
-        <v>801912.5624272709</v>
+        <v>918282.9348908619</v>
       </c>
     </row>
     <row r="10">
@@ -8536,28 +8536,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>639.0592700883192</v>
+        <v>733.0837158040366</v>
       </c>
       <c r="AB10" t="n">
-        <v>874.3890866400517</v>
+        <v>1003.037481334085</v>
       </c>
       <c r="AC10" t="n">
-        <v>790.9386194239153</v>
+        <v>907.3089918875063</v>
       </c>
       <c r="AD10" t="n">
-        <v>639059.2700883192</v>
+        <v>733083.7158040366</v>
       </c>
       <c r="AE10" t="n">
-        <v>874389.0866400517</v>
+        <v>1003037.481334085</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.768693424754562e-07</v>
+        <v>1.862063729346988e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.09375</v>
       </c>
       <c r="AH10" t="n">
-        <v>790938.6194239153</v>
+        <v>907308.9918875063</v>
       </c>
     </row>
     <row r="11">
@@ -8642,28 +8642,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>625.188068200428</v>
+        <v>719.2125139161453</v>
       </c>
       <c r="AB11" t="n">
-        <v>855.4098962628011</v>
+        <v>984.0582909568345</v>
       </c>
       <c r="AC11" t="n">
-        <v>773.7707763388084</v>
+        <v>890.1411488023994</v>
       </c>
       <c r="AD11" t="n">
-        <v>625188.068200428</v>
+        <v>719212.5139161453</v>
       </c>
       <c r="AE11" t="n">
-        <v>855409.8962628011</v>
+        <v>984058.2909568346</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.819159534250647e-07</v>
+        <v>1.871683348672515e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.00911458333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>773770.7763388085</v>
+        <v>890141.1488023994</v>
       </c>
     </row>
     <row r="12">
@@ -8748,28 +8748,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>606.9975250894965</v>
+        <v>712.7002525748084</v>
       </c>
       <c r="AB12" t="n">
-        <v>830.5207926683011</v>
+        <v>975.1479276889239</v>
       </c>
       <c r="AC12" t="n">
-        <v>751.257053859291</v>
+        <v>882.0811780990045</v>
       </c>
       <c r="AD12" t="n">
-        <v>606997.5250894965</v>
+        <v>712700.2525748083</v>
       </c>
       <c r="AE12" t="n">
-        <v>830520.792668301</v>
+        <v>975147.9276889239</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.839442563904579e-07</v>
+        <v>1.875549607157416e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.9765625</v>
       </c>
       <c r="AH12" t="n">
-        <v>751257.053859291</v>
+        <v>882081.1780990046</v>
       </c>
     </row>
     <row r="13">
@@ -8854,28 +8854,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>598.6739951909509</v>
+        <v>704.3767226762627</v>
       </c>
       <c r="AB13" t="n">
-        <v>819.1321718528882</v>
+        <v>963.759306873511</v>
       </c>
       <c r="AC13" t="n">
-        <v>740.9553470304716</v>
+        <v>871.7794712701851</v>
       </c>
       <c r="AD13" t="n">
-        <v>598673.9951909509</v>
+        <v>704376.7226762627</v>
       </c>
       <c r="AE13" t="n">
-        <v>819132.1718528882</v>
+        <v>963759.3068735111</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.885079380625921e-07</v>
+        <v>1.884248688748443e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.90494791666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>740955.3470304715</v>
+        <v>871779.4712701851</v>
       </c>
     </row>
     <row r="14">
@@ -8960,28 +8960,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>591.7720144037733</v>
+        <v>697.4747418890851</v>
       </c>
       <c r="AB14" t="n">
-        <v>809.6885772459694</v>
+        <v>954.3157122665921</v>
       </c>
       <c r="AC14" t="n">
-        <v>732.4130358386689</v>
+        <v>863.2371600783823</v>
       </c>
       <c r="AD14" t="n">
-        <v>591772.0144037732</v>
+        <v>697474.741889085</v>
       </c>
       <c r="AE14" t="n">
-        <v>809688.5772459694</v>
+        <v>954315.7122665921</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.906569733473534e-07</v>
+        <v>1.888345081666968e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.86588541666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>732413.0358386688</v>
+        <v>863237.1600783824</v>
       </c>
     </row>
     <row r="15">
@@ -9066,28 +9066,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>594.8482833559996</v>
+        <v>700.5510108413114</v>
       </c>
       <c r="AB15" t="n">
-        <v>813.8976641418133</v>
+        <v>958.524799162436</v>
       </c>
       <c r="AC15" t="n">
-        <v>736.220413388664</v>
+        <v>867.0445376283774</v>
       </c>
       <c r="AD15" t="n">
-        <v>594848.2833559996</v>
+        <v>700551.0108413114</v>
       </c>
       <c r="AE15" t="n">
-        <v>813897.6641418133</v>
+        <v>958524.799162436</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.901498976060054e-07</v>
+        <v>1.887378517045743e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.87890625</v>
       </c>
       <c r="AH15" t="n">
-        <v>736220.413388664</v>
+        <v>867044.5376283774</v>
       </c>
     </row>
   </sheetData>
@@ -9363,28 +9363,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>595.0524035321155</v>
+        <v>689.1381346068129</v>
       </c>
       <c r="AB2" t="n">
-        <v>814.1769503719217</v>
+        <v>942.909198397831</v>
       </c>
       <c r="AC2" t="n">
-        <v>736.4730449329516</v>
+        <v>852.9192678841129</v>
       </c>
       <c r="AD2" t="n">
-        <v>595052.4035321155</v>
+        <v>689138.1346068128</v>
       </c>
       <c r="AE2" t="n">
-        <v>814176.9503719218</v>
+        <v>942909.1983978311</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.55970852220078e-07</v>
+        <v>2.035967734851665e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.34635416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>736473.0449329516</v>
+        <v>852919.2678841129</v>
       </c>
     </row>
     <row r="3">
@@ -9469,28 +9469,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>501.1859734201605</v>
+        <v>595.2716149863069</v>
       </c>
       <c r="AB3" t="n">
-        <v>685.7447595981123</v>
+        <v>814.4768851544734</v>
       </c>
       <c r="AC3" t="n">
-        <v>620.2982421908825</v>
+        <v>736.7443543608175</v>
       </c>
       <c r="AD3" t="n">
-        <v>501185.9734201605</v>
+        <v>595271.6149863069</v>
       </c>
       <c r="AE3" t="n">
-        <v>685744.7595981123</v>
+        <v>814476.8851544734</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.058088369974139e-06</v>
+        <v>2.253451323213778e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.57552083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>620298.2421908826</v>
+        <v>736744.3543608175</v>
       </c>
     </row>
     <row r="4">
@@ -9575,28 +9575,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>468.6833268959206</v>
+        <v>552.305615479427</v>
       </c>
       <c r="AB4" t="n">
-        <v>641.2732047080833</v>
+        <v>755.6889091030416</v>
       </c>
       <c r="AC4" t="n">
-        <v>580.0709900833386</v>
+        <v>683.5670202342919</v>
       </c>
       <c r="AD4" t="n">
-        <v>468683.3268959206</v>
+        <v>552305.615479427</v>
       </c>
       <c r="AE4" t="n">
-        <v>641273.2047080833</v>
+        <v>755688.9091030416</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.094732123046837e-06</v>
+        <v>2.331492927480922e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.02213541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>580070.9900833387</v>
+        <v>683567.0202342919</v>
       </c>
     </row>
     <row r="5">
@@ -9681,28 +9681,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>444.0516689457923</v>
+        <v>538.051969657367</v>
       </c>
       <c r="AB5" t="n">
-        <v>607.5710836286626</v>
+        <v>736.1864420628257</v>
       </c>
       <c r="AC5" t="n">
-        <v>549.5853521385137</v>
+        <v>665.9258412765098</v>
       </c>
       <c r="AD5" t="n">
-        <v>444051.6689457923</v>
+        <v>538051.969657367</v>
       </c>
       <c r="AE5" t="n">
-        <v>607571.0836286625</v>
+        <v>736186.4420628257</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.107045501836706e-06</v>
+        <v>2.357717201855984e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.84635416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>549585.3521385137</v>
+        <v>665925.8412765098</v>
       </c>
     </row>
     <row r="6">
@@ -9787,28 +9787,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>446.1133329809194</v>
+        <v>540.1136336924941</v>
       </c>
       <c r="AB6" t="n">
-        <v>610.3919433157214</v>
+        <v>739.0073017498846</v>
       </c>
       <c r="AC6" t="n">
-        <v>552.136992936141</v>
+        <v>668.4774820741371</v>
       </c>
       <c r="AD6" t="n">
-        <v>446113.3329809194</v>
+        <v>540113.6336924941</v>
       </c>
       <c r="AE6" t="n">
-        <v>610391.9433157213</v>
+        <v>739007.3017498846</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.106856894284126e-06</v>
+        <v>2.357315517128139e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.84635416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>552136.9929361411</v>
+        <v>668477.4820741371</v>
       </c>
     </row>
   </sheetData>
@@ -10084,28 +10084,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>751.838011746981</v>
+        <v>872.3570865460417</v>
       </c>
       <c r="AB2" t="n">
-        <v>1028.697936424365</v>
+        <v>1193.59745149077</v>
       </c>
       <c r="AC2" t="n">
-        <v>930.520449158645</v>
+        <v>1079.682185945035</v>
       </c>
       <c r="AD2" t="n">
-        <v>751838.0117469811</v>
+        <v>872357.0865460418</v>
       </c>
       <c r="AE2" t="n">
-        <v>1028697.936424365</v>
+        <v>1193597.45149077</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.461621669260914e-07</v>
+        <v>1.718001743912474e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.83072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>930520.449158645</v>
+        <v>1079682.185945035</v>
       </c>
     </row>
     <row r="3">
@@ -10190,28 +10190,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>618.1003513196741</v>
+        <v>716.6759235348851</v>
       </c>
       <c r="AB3" t="n">
-        <v>845.7121693385534</v>
+        <v>980.5876160907249</v>
       </c>
       <c r="AC3" t="n">
-        <v>764.9985868613659</v>
+        <v>887.0017102743883</v>
       </c>
       <c r="AD3" t="n">
-        <v>618100.3513196742</v>
+        <v>716675.923534885</v>
       </c>
       <c r="AE3" t="n">
-        <v>845712.1693385534</v>
+        <v>980587.6160907248</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.694507295241813e-07</v>
+        <v>1.96832015074628e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.31119791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>764998.5868613658</v>
+        <v>887001.7102743883</v>
       </c>
     </row>
     <row r="4">
@@ -10296,28 +10296,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>569.1686650073989</v>
+        <v>667.8294885686304</v>
       </c>
       <c r="AB4" t="n">
-        <v>778.761677412453</v>
+        <v>913.7537688172737</v>
       </c>
       <c r="AC4" t="n">
-        <v>704.4377559190867</v>
+        <v>826.5463915828215</v>
       </c>
       <c r="AD4" t="n">
-        <v>569168.6650073989</v>
+        <v>667829.4885686304</v>
       </c>
       <c r="AE4" t="n">
-        <v>778761.677412453</v>
+        <v>913753.7688172737</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.012935530925598e-06</v>
+        <v>2.056609331663828e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.56901041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>704437.7559190867</v>
+        <v>826546.3915828215</v>
       </c>
     </row>
     <row r="5">
@@ -10402,28 +10402,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>545.5207711357949</v>
+        <v>633.2098881593771</v>
       </c>
       <c r="AB5" t="n">
-        <v>746.4055857458771</v>
+        <v>866.3857042283552</v>
       </c>
       <c r="AC5" t="n">
-        <v>675.169684229109</v>
+        <v>783.6990685967731</v>
       </c>
       <c r="AD5" t="n">
-        <v>545520.7711357949</v>
+        <v>633209.8881593772</v>
       </c>
       <c r="AE5" t="n">
-        <v>746405.5857458771</v>
+        <v>866385.7042283552</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.037010696609608e-06</v>
+        <v>2.105490241549418e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.18489583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>675169.684229109</v>
+        <v>783699.0685967732</v>
       </c>
     </row>
     <row r="6">
@@ -10508,28 +10508,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>515.7754731242077</v>
+        <v>614.3509558308675</v>
       </c>
       <c r="AB6" t="n">
-        <v>705.7067567364905</v>
+        <v>840.5820810191134</v>
       </c>
       <c r="AC6" t="n">
-        <v>638.3550943392129</v>
+        <v>760.358106971009</v>
       </c>
       <c r="AD6" t="n">
-        <v>515775.4731242077</v>
+        <v>614350.9558308675</v>
       </c>
       <c r="AE6" t="n">
-        <v>705706.7567364905</v>
+        <v>840582.0810191134</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.051651696725793e-06</v>
+        <v>2.135216533642581e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.95703125</v>
       </c>
       <c r="AH6" t="n">
-        <v>638355.0943392129</v>
+        <v>760358.1069710089</v>
       </c>
     </row>
     <row r="7">
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>499.8240529239892</v>
+        <v>587.598421293592</v>
       </c>
       <c r="AB7" t="n">
-        <v>683.881319891559</v>
+        <v>803.9780830266864</v>
       </c>
       <c r="AC7" t="n">
-        <v>618.6126465545686</v>
+        <v>727.2475431729451</v>
       </c>
       <c r="AD7" t="n">
-        <v>499824.0529239892</v>
+        <v>587598.421293592</v>
       </c>
       <c r="AE7" t="n">
-        <v>683881.319891559</v>
+        <v>803978.0830266863</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.061008533067651e-06</v>
+        <v>2.154214146371135e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.81380208333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>618612.6465545687</v>
+        <v>727247.5431729452</v>
       </c>
     </row>
     <row r="8">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>499.1055951716565</v>
+        <v>586.8799635412593</v>
       </c>
       <c r="AB8" t="n">
-        <v>682.8982942986983</v>
+        <v>802.9950574338257</v>
       </c>
       <c r="AC8" t="n">
-        <v>617.7234395446055</v>
+        <v>726.358336162982</v>
       </c>
       <c r="AD8" t="n">
-        <v>499105.5951716565</v>
+        <v>586879.9635412593</v>
       </c>
       <c r="AE8" t="n">
-        <v>682898.2942986983</v>
+        <v>802995.0574338257</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.062116918639827e-06</v>
+        <v>2.156464552286638e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.80078125</v>
       </c>
       <c r="AH8" t="n">
-        <v>617723.4395446056</v>
+        <v>726358.336162982</v>
       </c>
     </row>
     <row r="9">
@@ -10826,28 +10826,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>501.1737265592578</v>
+        <v>588.9480949288604</v>
       </c>
       <c r="AB9" t="n">
-        <v>685.7280029027319</v>
+        <v>805.8247660378593</v>
       </c>
       <c r="AC9" t="n">
-        <v>620.283084730991</v>
+        <v>728.9179813493677</v>
       </c>
       <c r="AD9" t="n">
-        <v>501173.7265592578</v>
+        <v>588948.0949288604</v>
       </c>
       <c r="AE9" t="n">
-        <v>685728.0029027319</v>
+        <v>805824.7660378593</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.062091142231172e-06</v>
+        <v>2.156412217265348e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.80078125</v>
       </c>
       <c r="AH9" t="n">
-        <v>620283.084730991</v>
+        <v>728917.9813493676</v>
       </c>
     </row>
   </sheetData>
@@ -11123,28 +11123,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>484.4477707850196</v>
+        <v>574.695573257369</v>
       </c>
       <c r="AB2" t="n">
-        <v>662.8428123153287</v>
+        <v>786.3238371100451</v>
       </c>
       <c r="AC2" t="n">
-        <v>599.582024613683</v>
+        <v>711.2781937086985</v>
       </c>
       <c r="AD2" t="n">
-        <v>484447.7707850196</v>
+        <v>574695.573257369</v>
       </c>
       <c r="AE2" t="n">
-        <v>662842.8123153287</v>
+        <v>786323.8371100451</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.047256178782303e-06</v>
+        <v>2.332034955839279e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.39583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>599582.024613683</v>
+        <v>711278.1937086985</v>
       </c>
     </row>
     <row r="3">
@@ -11229,28 +11229,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>418.7050793752238</v>
+        <v>498.9917344051511</v>
       </c>
       <c r="AB3" t="n">
-        <v>572.8907615655983</v>
+        <v>682.7425049747832</v>
       </c>
       <c r="AC3" t="n">
-        <v>518.2148713390108</v>
+        <v>617.5825185351132</v>
       </c>
       <c r="AD3" t="n">
-        <v>418705.0793752238</v>
+        <v>498991.7344051511</v>
       </c>
       <c r="AE3" t="n">
-        <v>572890.7615655983</v>
+        <v>682742.5049747832</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.132046319379523e-06</v>
+        <v>2.520846037396382e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.09375</v>
       </c>
       <c r="AH3" t="n">
-        <v>518214.8713390107</v>
+        <v>617582.5185351132</v>
       </c>
     </row>
     <row r="4">
@@ -11335,28 +11335,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>402.8790990845719</v>
+        <v>493.12681204837</v>
       </c>
       <c r="AB4" t="n">
-        <v>551.236957138954</v>
+        <v>674.7178594641219</v>
       </c>
       <c r="AC4" t="n">
-        <v>498.6276756155399</v>
+        <v>610.3237339293289</v>
       </c>
       <c r="AD4" t="n">
-        <v>402879.0990845719</v>
+        <v>493126.81204837</v>
       </c>
       <c r="AE4" t="n">
-        <v>551236.9571389541</v>
+        <v>674717.859464122</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.140329448625984e-06</v>
+        <v>2.539290948333974e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.9765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>498627.6756155399</v>
+        <v>610323.7339293289</v>
       </c>
     </row>
   </sheetData>
@@ -11632,28 +11632,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1186.392125344743</v>
+        <v>1340.625437894294</v>
       </c>
       <c r="AB2" t="n">
-        <v>1623.274045823282</v>
+        <v>1834.302868347104</v>
       </c>
       <c r="AC2" t="n">
-        <v>1468.351049169339</v>
+        <v>1659.239577052301</v>
       </c>
       <c r="AD2" t="n">
-        <v>1186392.125344743</v>
+        <v>1340625.437894294</v>
       </c>
       <c r="AE2" t="n">
-        <v>1623274.045823282</v>
+        <v>1834302.868347104</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.510036232475214e-07</v>
+        <v>1.230893998978237e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.93229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1468351.049169339</v>
+        <v>1659239.577052301</v>
       </c>
     </row>
     <row r="3">
@@ -11738,28 +11738,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>878.5477686682092</v>
+        <v>997.1494797435354</v>
       </c>
       <c r="AB3" t="n">
-        <v>1202.06781588394</v>
+        <v>1364.343909315414</v>
       </c>
       <c r="AC3" t="n">
-        <v>1087.344150648752</v>
+        <v>1234.132841479053</v>
       </c>
       <c r="AD3" t="n">
-        <v>878547.7686682092</v>
+        <v>997149.4797435354</v>
       </c>
       <c r="AE3" t="n">
-        <v>1202067.81588394</v>
+        <v>1364343.909315414</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.114991682253241e-07</v>
+        <v>1.534353144398087e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.19921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1087344.150648752</v>
+        <v>1234132.841479053</v>
       </c>
     </row>
     <row r="4">
@@ -11844,28 +11844,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>783.9844226397877</v>
+        <v>902.586044206563</v>
       </c>
       <c r="AB4" t="n">
-        <v>1072.68207400746</v>
+        <v>1234.958044969386</v>
       </c>
       <c r="AC4" t="n">
-        <v>970.3068023829342</v>
+        <v>1117.095382432009</v>
       </c>
       <c r="AD4" t="n">
-        <v>783984.4226397877</v>
+        <v>902586.0442065629</v>
       </c>
       <c r="AE4" t="n">
-        <v>1072682.07400746</v>
+        <v>1234958.044969386</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.730459911987712e-07</v>
+        <v>1.650723641195442e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.84505208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>970306.8023829341</v>
+        <v>1117095.382432009</v>
       </c>
     </row>
     <row r="5">
@@ -11950,28 +11950,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>750.5444660180851</v>
+        <v>857.2689467658196</v>
       </c>
       <c r="AB5" t="n">
-        <v>1026.92805009088</v>
+        <v>1172.953193001722</v>
       </c>
       <c r="AC5" t="n">
-        <v>928.9194782927763</v>
+        <v>1061.008186511783</v>
       </c>
       <c r="AD5" t="n">
-        <v>750544.4660180851</v>
+        <v>857268.9467658196</v>
       </c>
       <c r="AE5" t="n">
-        <v>1026928.05009088</v>
+        <v>1172953.193001722</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.045612189810534e-07</v>
+        <v>1.710311488894554e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.22005208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>928919.4782927763</v>
+        <v>1061008.186511783</v>
       </c>
     </row>
     <row r="6">
@@ -12056,28 +12056,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>714.6054142526723</v>
+        <v>821.4151463464274</v>
       </c>
       <c r="AB6" t="n">
-        <v>977.7546539463789</v>
+        <v>1123.89644150987</v>
       </c>
       <c r="AC6" t="n">
-        <v>884.4391220610112</v>
+        <v>1016.63334253073</v>
       </c>
       <c r="AD6" t="n">
-        <v>714605.4142526723</v>
+        <v>821415.1463464274</v>
       </c>
       <c r="AE6" t="n">
-        <v>977754.6539463789</v>
+        <v>1123896.44150987</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.258345959730418e-07</v>
+        <v>1.750534417219923e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.82942708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>884439.1220610111</v>
+        <v>1016633.34253073</v>
       </c>
     </row>
     <row r="7">
@@ -12162,28 +12162,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>697.5793861014441</v>
+        <v>804.3891181951991</v>
       </c>
       <c r="AB7" t="n">
-        <v>954.4588910945187</v>
+        <v>1100.60067865801</v>
       </c>
       <c r="AC7" t="n">
-        <v>863.3666741199243</v>
+        <v>995.5608945896431</v>
       </c>
       <c r="AD7" t="n">
-        <v>697579.3861014441</v>
+        <v>804389.1181951991</v>
       </c>
       <c r="AE7" t="n">
-        <v>954458.8910945187</v>
+        <v>1100600.67865801</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.398094577990501e-07</v>
+        <v>1.776957578234563e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.57552083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>863366.6741199243</v>
+        <v>995560.8945896431</v>
       </c>
     </row>
     <row r="8">
@@ -12268,28 +12268,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>684.5427563137924</v>
+        <v>779.4753475885066</v>
       </c>
       <c r="AB8" t="n">
-        <v>936.6215990835384</v>
+        <v>1066.512558595946</v>
       </c>
       <c r="AC8" t="n">
-        <v>847.2317482236753</v>
+        <v>964.7260968633252</v>
       </c>
       <c r="AD8" t="n">
-        <v>684542.7563137924</v>
+        <v>779475.3475885065</v>
       </c>
       <c r="AE8" t="n">
-        <v>936621.5990835384</v>
+        <v>1066512.558595946</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.497402243363675e-07</v>
+        <v>1.795734310804898e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.40625</v>
       </c>
       <c r="AH8" t="n">
-        <v>847231.7482236753</v>
+        <v>964726.0968633252</v>
       </c>
     </row>
     <row r="9">
@@ -12374,28 +12374,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>674.2856563013387</v>
+        <v>769.2182475760528</v>
       </c>
       <c r="AB9" t="n">
-        <v>922.5873823351833</v>
+        <v>1052.478341847591</v>
       </c>
       <c r="AC9" t="n">
-        <v>834.5369374246362</v>
+        <v>952.0312860642863</v>
       </c>
       <c r="AD9" t="n">
-        <v>674285.6563013387</v>
+        <v>769218.2475760528</v>
       </c>
       <c r="AE9" t="n">
-        <v>922587.3823351833</v>
+        <v>1052478.341847591</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.557704729325215e-07</v>
+        <v>1.80713608576327e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.30208333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>834536.9374246362</v>
+        <v>952031.2860642863</v>
       </c>
     </row>
     <row r="10">
@@ -12480,28 +12480,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>663.4312594912616</v>
+        <v>758.3638507659757</v>
       </c>
       <c r="AB10" t="n">
-        <v>907.7359177574448</v>
+        <v>1037.626877269852</v>
       </c>
       <c r="AC10" t="n">
-        <v>821.1028757820359</v>
+        <v>938.5972244216858</v>
       </c>
       <c r="AD10" t="n">
-        <v>663431.2594912616</v>
+        <v>758363.8507659757</v>
       </c>
       <c r="AE10" t="n">
-        <v>907735.9177574448</v>
+        <v>1037626.877269853</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.622314535712582e-07</v>
+        <v>1.819352273218669e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.19140625</v>
       </c>
       <c r="AH10" t="n">
-        <v>821102.8757820359</v>
+        <v>938597.2244216858</v>
       </c>
     </row>
     <row r="11">
@@ -12586,28 +12586,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>653.4603087189387</v>
+        <v>748.3928999936529</v>
       </c>
       <c r="AB11" t="n">
-        <v>894.0932230234506</v>
+        <v>1023.984182535858</v>
       </c>
       <c r="AC11" t="n">
-        <v>808.7622206858115</v>
+        <v>926.2565693254616</v>
       </c>
       <c r="AD11" t="n">
-        <v>653460.3087189387</v>
+        <v>748392.8999936529</v>
       </c>
       <c r="AE11" t="n">
-        <v>894093.2230234506</v>
+        <v>1023984.182535858</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.680941952619639e-07</v>
+        <v>1.830437332205976e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.09375</v>
       </c>
       <c r="AH11" t="n">
-        <v>808762.2206858115</v>
+        <v>926256.5693254615</v>
       </c>
     </row>
     <row r="12">
@@ -12692,28 +12692,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>644.9974992070158</v>
+        <v>739.93009048173</v>
       </c>
       <c r="AB12" t="n">
-        <v>882.5140336964317</v>
+        <v>1012.404993208839</v>
       </c>
       <c r="AC12" t="n">
-        <v>798.2881329366692</v>
+        <v>915.7824815763194</v>
       </c>
       <c r="AD12" t="n">
-        <v>644997.4992070158</v>
+        <v>739930.0904817299</v>
       </c>
       <c r="AE12" t="n">
-        <v>882514.0336964318</v>
+        <v>1012404.993208839</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.70247855474876e-07</v>
+        <v>1.834509394691108e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.0546875</v>
       </c>
       <c r="AH12" t="n">
-        <v>798288.1329366692</v>
+        <v>915782.4815763193</v>
       </c>
     </row>
     <row r="13">
@@ -12798,28 +12798,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>623.3944468777646</v>
+        <v>730.118838116948</v>
       </c>
       <c r="AB13" t="n">
-        <v>852.9557844401453</v>
+        <v>998.9808048814388</v>
       </c>
       <c r="AC13" t="n">
-        <v>771.5508815041393</v>
+        <v>903.639478941919</v>
       </c>
       <c r="AD13" t="n">
-        <v>623394.4468777647</v>
+        <v>730118.838116948</v>
       </c>
       <c r="AE13" t="n">
-        <v>852955.7844401452</v>
+        <v>998980.8048814387</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.749380488274404e-07</v>
+        <v>1.843377441880953e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.9765625</v>
       </c>
       <c r="AH13" t="n">
-        <v>771550.8815041393</v>
+        <v>903639.478941919</v>
       </c>
     </row>
     <row r="14">
@@ -12904,28 +12904,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>614.3600444660424</v>
+        <v>721.0844357052257</v>
       </c>
       <c r="AB14" t="n">
-        <v>840.594516490722</v>
+        <v>986.6195369320156</v>
       </c>
       <c r="AC14" t="n">
-        <v>760.3693556186605</v>
+        <v>892.4579530564404</v>
       </c>
       <c r="AD14" t="n">
-        <v>614360.0444660424</v>
+        <v>721084.4357052257</v>
       </c>
       <c r="AE14" t="n">
-        <v>840594.516490722</v>
+        <v>986619.5369320157</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.771156385982739e-07</v>
+        <v>1.84749474950481e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.94401041666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>760369.3556186605</v>
+        <v>892457.9530564403</v>
       </c>
     </row>
     <row r="15">
@@ -13010,28 +13010,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>610.5369568190412</v>
+        <v>717.2613480582247</v>
       </c>
       <c r="AB15" t="n">
-        <v>835.3635993093718</v>
+        <v>981.3886197506653</v>
       </c>
       <c r="AC15" t="n">
-        <v>755.6376698314599</v>
+        <v>887.7262672692398</v>
       </c>
       <c r="AD15" t="n">
-        <v>610536.9568190412</v>
+        <v>717261.3480582247</v>
       </c>
       <c r="AE15" t="n">
-        <v>835363.5993093718</v>
+        <v>981388.6197506653</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.782163982626514e-07</v>
+        <v>1.8495760258861e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.92447916666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>755637.6698314599</v>
+        <v>887726.2672692398</v>
       </c>
     </row>
     <row r="16">
@@ -13116,28 +13116,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>609.5669076325679</v>
+        <v>716.2912988717512</v>
       </c>
       <c r="AB16" t="n">
-        <v>834.036335216889</v>
+        <v>980.0613556581827</v>
       </c>
       <c r="AC16" t="n">
-        <v>754.437077961137</v>
+        <v>886.5256753989169</v>
       </c>
       <c r="AD16" t="n">
-        <v>609566.9076325679</v>
+        <v>716291.2988717512</v>
       </c>
       <c r="AE16" t="n">
-        <v>834036.335216889</v>
+        <v>980061.3556581828</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.784796233997851e-07</v>
+        <v>1.850073722412061e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>15.92447916666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>754437.0779611369</v>
+        <v>886525.6753989168</v>
       </c>
     </row>
     <row r="17">
@@ -13222,28 +13222,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>610.6111768223217</v>
+        <v>717.335568061505</v>
       </c>
       <c r="AB17" t="n">
-        <v>835.4651503922155</v>
+        <v>981.4901708335091</v>
       </c>
       <c r="AC17" t="n">
-        <v>755.7295290214847</v>
+        <v>887.8181264592648</v>
       </c>
       <c r="AD17" t="n">
-        <v>610611.1768223217</v>
+        <v>717335.568061505</v>
       </c>
       <c r="AE17" t="n">
-        <v>835465.1503922155</v>
+        <v>981490.1708335091</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.785274825156275e-07</v>
+        <v>1.850164212689508e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>15.91796875</v>
       </c>
       <c r="AH17" t="n">
-        <v>755729.5290214848</v>
+        <v>887818.1264592648</v>
       </c>
     </row>
   </sheetData>
@@ -13519,28 +13519,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>418.5393540777062</v>
+        <v>506.6503140863234</v>
       </c>
       <c r="AB2" t="n">
-        <v>572.6640089022505</v>
+        <v>693.2213115672528</v>
       </c>
       <c r="AC2" t="n">
-        <v>518.0097596316035</v>
+        <v>627.0612425334949</v>
       </c>
       <c r="AD2" t="n">
-        <v>418539.3540777062</v>
+        <v>506650.3140863234</v>
       </c>
       <c r="AE2" t="n">
-        <v>572664.0089022506</v>
+        <v>693221.3115672527</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.104246881449031e-06</v>
+        <v>2.531559682196288e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.88151041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>518009.7596316035</v>
+        <v>627061.242533495</v>
       </c>
     </row>
     <row r="3">
@@ -13625,28 +13625,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>386.2124045604901</v>
+        <v>464.5238650928597</v>
       </c>
       <c r="AB3" t="n">
-        <v>528.4328504084367</v>
+        <v>635.5820455666317</v>
       </c>
       <c r="AC3" t="n">
-        <v>477.9999608256184</v>
+        <v>574.922987182755</v>
       </c>
       <c r="AD3" t="n">
-        <v>386212.4045604902</v>
+        <v>464523.8650928597</v>
       </c>
       <c r="AE3" t="n">
-        <v>528432.8504084367</v>
+        <v>635582.0455666317</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.158687435447698e-06</v>
+        <v>2.656368286046366e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.09375</v>
       </c>
       <c r="AH3" t="n">
-        <v>477999.9608256184</v>
+        <v>574922.987182755</v>
       </c>
     </row>
     <row r="4">
@@ -13731,28 +13731,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>388.958631767449</v>
+        <v>467.2700922998186</v>
       </c>
       <c r="AB4" t="n">
-        <v>532.1903596279915</v>
+        <v>639.3395547861865</v>
       </c>
       <c r="AC4" t="n">
-        <v>481.3988586389561</v>
+        <v>578.3218849960929</v>
       </c>
       <c r="AD4" t="n">
-        <v>388958.631767449</v>
+        <v>467270.0922998186</v>
       </c>
       <c r="AE4" t="n">
-        <v>532190.3596279914</v>
+        <v>639339.5547861864</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.158887900401928e-06</v>
+        <v>2.656827865334609e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.08723958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>481398.8586389562</v>
+        <v>578321.8849960929</v>
       </c>
     </row>
   </sheetData>
@@ -14028,28 +14028,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>929.2388816003987</v>
+        <v>1054.416486733033</v>
       </c>
       <c r="AB2" t="n">
-        <v>1271.425632931832</v>
+        <v>1442.699154720486</v>
       </c>
       <c r="AC2" t="n">
-        <v>1150.0825549819</v>
+        <v>1305.009972234943</v>
       </c>
       <c r="AD2" t="n">
-        <v>929238.8816003987</v>
+        <v>1054416.486733034</v>
       </c>
       <c r="AE2" t="n">
-        <v>1271425.632931832</v>
+        <v>1442699.154720486</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.542863937705998e-07</v>
+        <v>1.47839090760206e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.47135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1150082.5549819</v>
+        <v>1305009.972234943</v>
       </c>
     </row>
     <row r="3">
@@ -14134,28 +14134,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>729.777220284995</v>
+        <v>832.2495849388876</v>
       </c>
       <c r="AB3" t="n">
-        <v>998.5133882926457</v>
+        <v>1138.72059837377</v>
       </c>
       <c r="AC3" t="n">
-        <v>903.2166719363371</v>
+        <v>1030.042702669374</v>
       </c>
       <c r="AD3" t="n">
-        <v>729777.220284995</v>
+        <v>832249.5849388875</v>
       </c>
       <c r="AE3" t="n">
-        <v>998513.3882926457</v>
+        <v>1138720.59837377</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.959187840122313e-07</v>
+        <v>1.755988435125347e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.07942708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>903216.6719363371</v>
+        <v>1030042.702669374</v>
       </c>
     </row>
     <row r="4">
@@ -14240,28 +14240,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>669.294333457414</v>
+        <v>760.4567482992211</v>
       </c>
       <c r="AB4" t="n">
-        <v>915.7580342185028</v>
+        <v>1040.490472006961</v>
       </c>
       <c r="AC4" t="n">
-        <v>828.3593727071615</v>
+        <v>941.1875216961655</v>
       </c>
       <c r="AD4" t="n">
-        <v>669294.3334574141</v>
+        <v>760456.748299221</v>
       </c>
       <c r="AE4" t="n">
-        <v>915758.0342185028</v>
+        <v>1040490.472006961</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.477154881195696e-07</v>
+        <v>1.857509259348688e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.08984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>828359.3727071615</v>
+        <v>941187.5216961656</v>
       </c>
     </row>
     <row r="5">
@@ -14346,28 +14346,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>631.3426144680437</v>
+        <v>733.814889613385</v>
       </c>
       <c r="AB5" t="n">
-        <v>863.8308179855717</v>
+        <v>1004.037905597148</v>
       </c>
       <c r="AC5" t="n">
-        <v>781.3880171111957</v>
+        <v>908.2139370630065</v>
       </c>
       <c r="AD5" t="n">
-        <v>631342.6144680438</v>
+        <v>733814.8896133851</v>
       </c>
       <c r="AE5" t="n">
-        <v>863830.8179855717</v>
+        <v>1004037.905597148</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.743850687166235e-07</v>
+        <v>1.909781268747065e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.62109375</v>
       </c>
       <c r="AH5" t="n">
-        <v>781388.0171111957</v>
+        <v>908213.9370630065</v>
       </c>
     </row>
     <row r="6">
@@ -14452,28 +14452,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>611.5852450654182</v>
+        <v>702.6623190526536</v>
       </c>
       <c r="AB6" t="n">
-        <v>836.7979135352781</v>
+        <v>961.4135842015392</v>
       </c>
       <c r="AC6" t="n">
-        <v>756.9350951207183</v>
+        <v>869.6576210777836</v>
       </c>
       <c r="AD6" t="n">
-        <v>611585.2450654182</v>
+        <v>702662.3190526536</v>
       </c>
       <c r="AE6" t="n">
-        <v>836797.9135352781</v>
+        <v>961413.5842015392</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.925960136765522e-07</v>
+        <v>1.945474469194465e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.31510416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>756935.0951207184</v>
+        <v>869657.6210777835</v>
       </c>
     </row>
     <row r="7">
@@ -14558,28 +14558,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>596.9399085372127</v>
+        <v>688.0169825244481</v>
       </c>
       <c r="AB7" t="n">
-        <v>816.7595179907398</v>
+        <v>941.3751886570006</v>
       </c>
       <c r="AC7" t="n">
-        <v>738.809135922886</v>
+        <v>851.5316618799511</v>
       </c>
       <c r="AD7" t="n">
-        <v>596939.9085372126</v>
+        <v>688016.9825244481</v>
       </c>
       <c r="AE7" t="n">
-        <v>816759.5179907398</v>
+        <v>941375.1886570007</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.003243943243287e-06</v>
+        <v>1.966344263991579e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.14583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>738809.135922886</v>
+        <v>851531.6618799511</v>
       </c>
     </row>
     <row r="8">
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>583.3234498297222</v>
+        <v>674.4005238169576</v>
       </c>
       <c r="AB8" t="n">
-        <v>798.1288784713894</v>
+        <v>922.7445491376504</v>
       </c>
       <c r="AC8" t="n">
-        <v>721.9565784909956</v>
+        <v>834.6791044480607</v>
       </c>
       <c r="AD8" t="n">
-        <v>583323.4498297222</v>
+        <v>674400.5238169576</v>
       </c>
       <c r="AE8" t="n">
-        <v>798128.8784713894</v>
+        <v>922744.5491376504</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.012001118961722e-06</v>
+        <v>1.98350820737612e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.00260416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>721956.5784909957</v>
+        <v>834679.1044480607</v>
       </c>
     </row>
     <row r="9">
@@ -14770,28 +14770,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>558.1954012965064</v>
+        <v>660.5823355872761</v>
       </c>
       <c r="AB9" t="n">
-        <v>763.7475738969814</v>
+        <v>903.8378943863599</v>
       </c>
       <c r="AC9" t="n">
-        <v>690.8565773707051</v>
+        <v>817.5768742905769</v>
       </c>
       <c r="AD9" t="n">
-        <v>558195.4012965064</v>
+        <v>660582.3355872761</v>
       </c>
       <c r="AE9" t="n">
-        <v>763747.5738969814</v>
+        <v>903837.89438636</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.017996798928038e-06</v>
+        <v>1.995259657250196e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.91145833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>690856.5773707051</v>
+        <v>817576.8742905769</v>
       </c>
     </row>
     <row r="10">
@@ -14876,28 +14876,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>548.1894198298338</v>
+        <v>650.5763541206036</v>
       </c>
       <c r="AB10" t="n">
-        <v>750.0569486215322</v>
+        <v>890.1472691109109</v>
       </c>
       <c r="AC10" t="n">
-        <v>678.4725661566316</v>
+        <v>805.1928630765035</v>
       </c>
       <c r="AD10" t="n">
-        <v>548189.4198298338</v>
+        <v>650576.3541206035</v>
       </c>
       <c r="AE10" t="n">
-        <v>750056.9486215322</v>
+        <v>890147.2691109108</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.021031956421359e-06</v>
+        <v>2.001208523991429e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.86588541666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>678472.5661566316</v>
+        <v>805192.8630765035</v>
       </c>
     </row>
     <row r="11">
@@ -14982,28 +14982,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>547.2761465553136</v>
+        <v>638.4384718885697</v>
       </c>
       <c r="AB11" t="n">
-        <v>748.8073678365606</v>
+        <v>873.5396831554708</v>
       </c>
       <c r="AC11" t="n">
-        <v>677.3422436079799</v>
+        <v>790.1702818157572</v>
       </c>
       <c r="AD11" t="n">
-        <v>547276.1465553136</v>
+        <v>638438.4718885696</v>
       </c>
       <c r="AE11" t="n">
-        <v>748807.3678365606</v>
+        <v>873539.6831554708</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.023121736990531e-06</v>
+        <v>2.005304465026377e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>677342.2436079798</v>
+        <v>790170.2818157573</v>
       </c>
     </row>
     <row r="12">
@@ -15088,28 +15088,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>548.9480757369469</v>
+        <v>640.1104010702029</v>
       </c>
       <c r="AB12" t="n">
-        <v>751.094975103181</v>
+        <v>875.827290422091</v>
       </c>
       <c r="AC12" t="n">
-        <v>679.411524847751</v>
+        <v>792.2395630555284</v>
       </c>
       <c r="AD12" t="n">
-        <v>548948.0757369469</v>
+        <v>640110.4010702029</v>
       </c>
       <c r="AE12" t="n">
-        <v>751094.975103181</v>
+        <v>875827.290422091</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.022922710269658e-06</v>
+        <v>2.004914375404001e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>679411.524847751</v>
+        <v>792239.5630555283</v>
       </c>
     </row>
   </sheetData>
@@ -15385,28 +15385,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1053.808337064979</v>
+        <v>1193.473523402463</v>
       </c>
       <c r="AB2" t="n">
-        <v>1441.867057514984</v>
+        <v>1632.963127055087</v>
       </c>
       <c r="AC2" t="n">
-        <v>1304.257289218879</v>
+        <v>1477.115418087092</v>
       </c>
       <c r="AD2" t="n">
-        <v>1053808.337064979</v>
+        <v>1193473.523402463</v>
       </c>
       <c r="AE2" t="n">
-        <v>1441867.057514984</v>
+        <v>1632963.127055087</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.999272039770926e-07</v>
+        <v>1.345752191728952e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.67578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1304257.289218879</v>
+        <v>1477115.418087092</v>
       </c>
     </row>
     <row r="3">
@@ -15491,28 +15491,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>797.3914451561686</v>
+        <v>913.7648769616428</v>
       </c>
       <c r="AB3" t="n">
-        <v>1091.026153690462</v>
+        <v>1250.253417120181</v>
       </c>
       <c r="AC3" t="n">
-        <v>986.9001488470676</v>
+        <v>1130.930985731922</v>
       </c>
       <c r="AD3" t="n">
-        <v>797391.4451561687</v>
+        <v>913764.8769616428</v>
       </c>
       <c r="AE3" t="n">
-        <v>1091026.153690462</v>
+        <v>1250253.417120181</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.519835492584573e-07</v>
+        <v>1.638111395323199e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.62630208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>986900.1488470676</v>
+        <v>1130930.985731922</v>
       </c>
     </row>
     <row r="4">
@@ -15597,28 +15597,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>726.9197079968894</v>
+        <v>831.5620111903387</v>
       </c>
       <c r="AB4" t="n">
-        <v>994.6036139155148</v>
+        <v>1137.779829637393</v>
       </c>
       <c r="AC4" t="n">
-        <v>899.6800409383568</v>
+        <v>1029.19171958082</v>
       </c>
       <c r="AD4" t="n">
-        <v>726919.7079968895</v>
+        <v>831562.0111903386</v>
       </c>
       <c r="AE4" t="n">
-        <v>994603.6139155148</v>
+        <v>1137779.829637393</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.084866926316862e-07</v>
+        <v>1.74675016318653e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.46744791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>899680.0409383568</v>
+        <v>1029191.71958082</v>
       </c>
     </row>
     <row r="5">
@@ -15703,28 +15703,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>684.6947185574103</v>
+        <v>789.4222730968798</v>
       </c>
       <c r="AB5" t="n">
-        <v>936.8295205293575</v>
+        <v>1080.122380903885</v>
       </c>
       <c r="AC5" t="n">
-        <v>847.4198259385249</v>
+        <v>977.0370168317003</v>
       </c>
       <c r="AD5" t="n">
-        <v>684694.7185574103</v>
+        <v>789422.2730968798</v>
       </c>
       <c r="AE5" t="n">
-        <v>936829.5205293575</v>
+        <v>1080122.380903885</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.38371444044792e-07</v>
+        <v>1.804209666810536e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.9140625</v>
       </c>
       <c r="AH5" t="n">
-        <v>847419.8259385249</v>
+        <v>977037.0168317002</v>
       </c>
     </row>
     <row r="6">
@@ -15809,28 +15809,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>664.1435087847432</v>
+        <v>768.8710633242125</v>
       </c>
       <c r="AB6" t="n">
-        <v>908.7104486630077</v>
+        <v>1052.003309037535</v>
       </c>
       <c r="AC6" t="n">
-        <v>821.9843988257343</v>
+        <v>951.6015897189097</v>
       </c>
       <c r="AD6" t="n">
-        <v>664143.5087847431</v>
+        <v>768871.0633242126</v>
       </c>
       <c r="AE6" t="n">
-        <v>908710.4486630077</v>
+        <v>1052003.309037535</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.575795876936722e-07</v>
+        <v>1.841141223789098e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.57552083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>821984.3988257343</v>
+        <v>951601.5897189097</v>
       </c>
     </row>
     <row r="7">
@@ -15915,28 +15915,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>647.8784635115425</v>
+        <v>740.9602302935584</v>
       </c>
       <c r="AB7" t="n">
-        <v>886.45589615706</v>
+        <v>1013.814475945944</v>
       </c>
       <c r="AC7" t="n">
-        <v>801.8537895764938</v>
+        <v>917.0574452592163</v>
       </c>
       <c r="AD7" t="n">
-        <v>647878.4635115424</v>
+        <v>740960.2302935584</v>
       </c>
       <c r="AE7" t="n">
-        <v>886455.8961570601</v>
+        <v>1013814.475945944</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.707912804064807e-07</v>
+        <v>1.866543386076382e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.34765625</v>
       </c>
       <c r="AH7" t="n">
-        <v>801853.7895764938</v>
+        <v>917057.4452592162</v>
       </c>
     </row>
     <row r="8">
@@ -16021,28 +16021,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>636.3207948298996</v>
+        <v>729.4025616119156</v>
       </c>
       <c r="AB8" t="n">
-        <v>870.64218397848</v>
+        <v>998.0007637673642</v>
       </c>
       <c r="AC8" t="n">
-        <v>787.5493158935531</v>
+        <v>902.7529715762755</v>
       </c>
       <c r="AD8" t="n">
-        <v>636320.7948298996</v>
+        <v>729402.5616119156</v>
       </c>
       <c r="AE8" t="n">
-        <v>870642.1839784801</v>
+        <v>998000.7637673642</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.783234078017903e-07</v>
+        <v>1.88102543062762e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.22395833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>787549.3158935531</v>
+        <v>902752.9715762755</v>
       </c>
     </row>
     <row r="9">
@@ -16127,28 +16127,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>624.2892801137066</v>
+        <v>717.3710468957227</v>
       </c>
       <c r="AB9" t="n">
-        <v>854.1801347508172</v>
+        <v>981.5387145397013</v>
       </c>
       <c r="AC9" t="n">
-        <v>772.658381539547</v>
+        <v>887.8620372222695</v>
       </c>
       <c r="AD9" t="n">
-        <v>624289.2801137066</v>
+        <v>717371.0468957226</v>
       </c>
       <c r="AE9" t="n">
-        <v>854180.1347508172</v>
+        <v>981538.7145397014</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.861724208156729e-07</v>
+        <v>1.896116752134088e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.09375</v>
       </c>
       <c r="AH9" t="n">
-        <v>772658.381539547</v>
+        <v>887862.0372222695</v>
       </c>
     </row>
     <row r="10">
@@ -16233,28 +16233,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>612.4415032853583</v>
+        <v>705.5232700673745</v>
       </c>
       <c r="AB10" t="n">
-        <v>837.9694838072467</v>
+        <v>965.3280635961308</v>
       </c>
       <c r="AC10" t="n">
-        <v>757.9948523702395</v>
+        <v>873.1985080529619</v>
       </c>
       <c r="AD10" t="n">
-        <v>612441.5032853583</v>
+        <v>705523.2700673745</v>
       </c>
       <c r="AE10" t="n">
-        <v>837969.4838072467</v>
+        <v>965328.0635961308</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.90706322742947e-07</v>
+        <v>1.904834099339688e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.015625</v>
       </c>
       <c r="AH10" t="n">
-        <v>757994.8523702396</v>
+        <v>873198.5080529619</v>
       </c>
     </row>
     <row r="11">
@@ -16339,28 +16339,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>589.7568281310431</v>
+        <v>694.3990418159411</v>
       </c>
       <c r="AB11" t="n">
-        <v>806.9313104838762</v>
+        <v>950.1074037362062</v>
       </c>
       <c r="AC11" t="n">
-        <v>729.9189187465016</v>
+        <v>859.4304866077381</v>
       </c>
       <c r="AD11" t="n">
-        <v>589756.8281310431</v>
+        <v>694399.0418159411</v>
       </c>
       <c r="AE11" t="n">
-        <v>806931.3104838763</v>
+        <v>950107.4037362061</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.965321429613253e-07</v>
+        <v>1.916035421824302e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.92447916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>729918.9187465017</v>
+        <v>859430.4866077381</v>
       </c>
     </row>
     <row r="12">
@@ -16445,28 +16445,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>581.8511647977801</v>
+        <v>686.4933784826779</v>
       </c>
       <c r="AB12" t="n">
-        <v>796.1144331380547</v>
+        <v>939.2905263903846</v>
       </c>
       <c r="AC12" t="n">
-        <v>720.1343889929826</v>
+        <v>849.645956854219</v>
       </c>
       <c r="AD12" t="n">
-        <v>581851.1647977801</v>
+        <v>686493.378482678</v>
       </c>
       <c r="AE12" t="n">
-        <v>796114.4331380547</v>
+        <v>939290.5263903845</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.985065841232029e-07</v>
+        <v>1.919831685929967e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.89192708333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>720134.3889929826</v>
+        <v>849645.956854219</v>
       </c>
     </row>
     <row r="13">
@@ -16551,28 +16551,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>578.0824181334365</v>
+        <v>682.7246318183345</v>
       </c>
       <c r="AB13" t="n">
-        <v>790.9578676865312</v>
+        <v>934.133960938861</v>
       </c>
       <c r="AC13" t="n">
-        <v>715.4699589108676</v>
+        <v>844.9815267721038</v>
       </c>
       <c r="AD13" t="n">
-        <v>578082.4181334365</v>
+        <v>682724.6318183345</v>
       </c>
       <c r="AE13" t="n">
-        <v>790957.8676865313</v>
+        <v>934133.960938861</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.00026164293376e-06</v>
+        <v>1.923206142912779e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.86588541666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>715469.9589108676</v>
+        <v>844981.5267721039</v>
       </c>
     </row>
     <row r="14">
@@ -16657,28 +16657,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>580.1537019453522</v>
+        <v>684.7959156302502</v>
       </c>
       <c r="AB14" t="n">
-        <v>793.7918895765869</v>
+        <v>936.9679828289167</v>
       </c>
       <c r="AC14" t="n">
-        <v>718.0335057293111</v>
+        <v>847.5450735905473</v>
       </c>
       <c r="AD14" t="n">
-        <v>580153.7019453521</v>
+        <v>684795.9156302502</v>
       </c>
       <c r="AE14" t="n">
-        <v>793791.8895765869</v>
+        <v>936967.9828289166</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.000017884765627e-06</v>
+        <v>1.922737468331833e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.87239583333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>718033.505729311</v>
+        <v>847545.0735905473</v>
       </c>
     </row>
   </sheetData>
@@ -16954,28 +16954,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1340.515665778394</v>
+        <v>1497.552194289605</v>
       </c>
       <c r="AB2" t="n">
-        <v>1834.152673295325</v>
+        <v>2049.016979567052</v>
       </c>
       <c r="AC2" t="n">
-        <v>1659.103716405463</v>
+        <v>1853.461674850564</v>
       </c>
       <c r="AD2" t="n">
-        <v>1340515.665778394</v>
+        <v>1497552.194289606</v>
       </c>
       <c r="AE2" t="n">
-        <v>1834152.673295325</v>
+        <v>2049016.979567052</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.063662255773151e-07</v>
+        <v>1.129614287540551e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.26041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1659103.716405463</v>
+        <v>1853461.674850564</v>
       </c>
     </row>
     <row r="3">
@@ -17060,28 +17060,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>949.2660718626879</v>
+        <v>1070.194626256384</v>
       </c>
       <c r="AB3" t="n">
-        <v>1298.827718185973</v>
+        <v>1464.287501298722</v>
       </c>
       <c r="AC3" t="n">
-        <v>1174.869423678454</v>
+        <v>1324.537957315187</v>
       </c>
       <c r="AD3" t="n">
-        <v>949266.0718626879</v>
+        <v>1070194.626256383</v>
       </c>
       <c r="AE3" t="n">
-        <v>1298827.718185973</v>
+        <v>1464287.501298722</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.742862842435148e-07</v>
+        <v>1.442436620699673e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.78515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1174869.423678454</v>
+        <v>1324537.957315187</v>
       </c>
     </row>
     <row r="4">
@@ -17166,28 +17166,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>854.3595571203523</v>
+        <v>963.1100047286577</v>
       </c>
       <c r="AB4" t="n">
-        <v>1168.972437735581</v>
+        <v>1317.769597884406</v>
       </c>
       <c r="AC4" t="n">
-        <v>1057.407348941218</v>
+        <v>1192.003516963564</v>
       </c>
       <c r="AD4" t="n">
-        <v>854359.5571203523</v>
+        <v>963110.0047286577</v>
       </c>
       <c r="AE4" t="n">
-        <v>1168972.437735581</v>
+        <v>1317769.597884406</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.39412068520948e-07</v>
+        <v>1.563761017250668e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.24869791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1057407.348941218</v>
+        <v>1192003.516963564</v>
       </c>
     </row>
     <row r="5">
@@ -17272,28 +17272,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>803.5306484136196</v>
+        <v>912.3663473679453</v>
       </c>
       <c r="AB5" t="n">
-        <v>1099.426082429839</v>
+        <v>1248.339887231313</v>
       </c>
       <c r="AC5" t="n">
-        <v>994.4984001769325</v>
+        <v>1129.200080449992</v>
       </c>
       <c r="AD5" t="n">
-        <v>803530.6484136196</v>
+        <v>912366.3473679454</v>
       </c>
       <c r="AE5" t="n">
-        <v>1099426.082429839</v>
+        <v>1248339.887231313</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.727043317986099e-07</v>
+        <v>1.625781978637828e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.55208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>994498.4001769325</v>
+        <v>1129200.080449992</v>
       </c>
     </row>
     <row r="6">
@@ -17378,28 +17378,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>776.2040767984157</v>
+        <v>872.9470098219232</v>
       </c>
       <c r="AB6" t="n">
-        <v>1062.036661582662</v>
+        <v>1194.40461054241</v>
       </c>
       <c r="AC6" t="n">
-        <v>960.677373179028</v>
+        <v>1080.412310869641</v>
       </c>
       <c r="AD6" t="n">
-        <v>776204.0767984157</v>
+        <v>872947.0098219232</v>
       </c>
       <c r="AE6" t="n">
-        <v>1062036.661582662</v>
+        <v>1194404.61054241</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.964441859662146e-07</v>
+        <v>1.670007526369025e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.08984375</v>
       </c>
       <c r="AH6" t="n">
-        <v>960677.373179028</v>
+        <v>1080412.310869641</v>
       </c>
     </row>
     <row r="7">
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>747.2141499283998</v>
+        <v>855.9645080281542</v>
       </c>
       <c r="AB7" t="n">
-        <v>1022.371364693796</v>
+        <v>1171.168402373073</v>
       </c>
       <c r="AC7" t="n">
-        <v>924.7976765546421</v>
+        <v>1059.393733795762</v>
       </c>
       <c r="AD7" t="n">
-        <v>747214.1499283998</v>
+        <v>855964.5080281543</v>
       </c>
       <c r="AE7" t="n">
-        <v>1022371.364693796</v>
+        <v>1171168.402373073</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.105610467199935e-07</v>
+        <v>1.696306167239906e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.82291666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>924797.676554642</v>
+        <v>1059393.733795762</v>
       </c>
     </row>
     <row r="8">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>733.2485373065581</v>
+        <v>841.9988954063125</v>
       </c>
       <c r="AB8" t="n">
-        <v>1003.262997385247</v>
+        <v>1152.060035064524</v>
       </c>
       <c r="AC8" t="n">
-        <v>907.5129850032588</v>
+        <v>1042.109042244379</v>
       </c>
       <c r="AD8" t="n">
-        <v>733248.5373065581</v>
+        <v>841998.8954063125</v>
       </c>
       <c r="AE8" t="n">
-        <v>1003262.997385247</v>
+        <v>1152060.035064524</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.210781079815589e-07</v>
+        <v>1.715898654688712e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.62760416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>907512.9850032588</v>
+        <v>1042109.042244379</v>
       </c>
     </row>
     <row r="9">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>722.8916285715203</v>
+        <v>819.5492207404561</v>
       </c>
       <c r="AB9" t="n">
-        <v>989.0922179394022</v>
+        <v>1121.343399776952</v>
       </c>
       <c r="AC9" t="n">
-        <v>894.6946448589115</v>
+        <v>1014.323959517585</v>
       </c>
       <c r="AD9" t="n">
-        <v>722891.6285715203</v>
+        <v>819549.2207404561</v>
       </c>
       <c r="AE9" t="n">
-        <v>989092.2179394022</v>
+        <v>1121343.399776952</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.287482689911121e-07</v>
+        <v>1.730187582895223e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.49088541666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>894694.6448589115</v>
+        <v>1014323.959517585</v>
       </c>
     </row>
     <row r="10">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>712.7904973868343</v>
+        <v>809.44808955577</v>
       </c>
       <c r="AB10" t="n">
-        <v>975.2714046220578</v>
+        <v>1107.522586459608</v>
       </c>
       <c r="AC10" t="n">
-        <v>882.1928705669413</v>
+        <v>1001.822185225615</v>
       </c>
       <c r="AD10" t="n">
-        <v>712790.4973868344</v>
+        <v>809448.08955577</v>
       </c>
       <c r="AE10" t="n">
-        <v>975271.4046220578</v>
+        <v>1107522.586459608</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.347008786089555e-07</v>
+        <v>1.741276843129112e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.38671875</v>
       </c>
       <c r="AH10" t="n">
-        <v>882192.8705669413</v>
+        <v>1001822.185225615</v>
       </c>
     </row>
     <row r="11">
@@ -17908,28 +17908,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>702.0240977379026</v>
+        <v>798.6816899068383</v>
       </c>
       <c r="AB11" t="n">
-        <v>960.5403416423593</v>
+        <v>1092.791523479909</v>
       </c>
       <c r="AC11" t="n">
-        <v>868.8677195628485</v>
+        <v>988.4970342215222</v>
       </c>
       <c r="AD11" t="n">
-        <v>702024.0977379025</v>
+        <v>798681.6899068383</v>
       </c>
       <c r="AE11" t="n">
-        <v>960540.3416423593</v>
+        <v>1092791.523479909</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.422533991122273e-07</v>
+        <v>1.755346615995033e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.25651041666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>868867.7195628484</v>
+        <v>988497.0342215222</v>
       </c>
     </row>
     <row r="12">
@@ -18014,28 +18014,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>694.4847554920967</v>
+        <v>791.1423476610324</v>
       </c>
       <c r="AB12" t="n">
-        <v>950.2246809693426</v>
+        <v>1082.475862806893</v>
       </c>
       <c r="AC12" t="n">
-        <v>859.5365710663436</v>
+        <v>979.1658857250175</v>
       </c>
       <c r="AD12" t="n">
-        <v>694484.7554920968</v>
+        <v>791142.3476610325</v>
       </c>
       <c r="AE12" t="n">
-        <v>950224.6809693426</v>
+        <v>1082475.862806892</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.458767267056971e-07</v>
+        <v>1.762096600485225e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.19140625</v>
       </c>
       <c r="AH12" t="n">
-        <v>859536.5710663437</v>
+        <v>979165.8857250174</v>
       </c>
     </row>
     <row r="13">
@@ -18120,28 +18120,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>685.7010947449659</v>
+        <v>782.3586869139016</v>
       </c>
       <c r="AB13" t="n">
-        <v>938.2064888273549</v>
+        <v>1070.457670664905</v>
       </c>
       <c r="AC13" t="n">
-        <v>848.6653783147488</v>
+        <v>968.2946929734223</v>
       </c>
       <c r="AD13" t="n">
-        <v>685701.0947449659</v>
+        <v>782358.6869139016</v>
       </c>
       <c r="AE13" t="n">
-        <v>938206.4888273549</v>
+        <v>1070457.670664905</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.481824806288143e-07</v>
+        <v>1.766392045160802e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.15234375</v>
       </c>
       <c r="AH13" t="n">
-        <v>848665.3783147488</v>
+        <v>968294.6929734224</v>
       </c>
     </row>
     <row r="14">
@@ -18226,28 +18226,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>677.1640864247478</v>
+        <v>773.8216785936837</v>
       </c>
       <c r="AB14" t="n">
-        <v>926.5257774174065</v>
+        <v>1058.776959254957</v>
       </c>
       <c r="AC14" t="n">
-        <v>838.0994576077844</v>
+        <v>957.7287722664581</v>
       </c>
       <c r="AD14" t="n">
-        <v>677164.0864247478</v>
+        <v>773821.6785936838</v>
       </c>
       <c r="AE14" t="n">
-        <v>926525.7774174066</v>
+        <v>1058776.959254957</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.524881231587169e-07</v>
+        <v>1.774413130626421e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.08072916666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>838099.4576077844</v>
+        <v>957728.7722664581</v>
       </c>
     </row>
     <row r="15">
@@ -18332,28 +18332,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>670.0700260647184</v>
+        <v>766.7276182336542</v>
       </c>
       <c r="AB15" t="n">
-        <v>916.8193710649593</v>
+        <v>1049.070552902509</v>
       </c>
       <c r="AC15" t="n">
-        <v>829.3194170545878</v>
+        <v>948.9487317132615</v>
       </c>
       <c r="AD15" t="n">
-        <v>670070.0260647184</v>
+        <v>766727.6182336542</v>
       </c>
       <c r="AE15" t="n">
-        <v>916819.3710649593</v>
+        <v>1049070.552902509</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.553114953094727e-07</v>
+        <v>1.779672858800597e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.03515625</v>
       </c>
       <c r="AH15" t="n">
-        <v>829319.4170545879</v>
+        <v>948948.7317132615</v>
       </c>
     </row>
     <row r="16">
@@ -18438,28 +18438,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>663.5381188077458</v>
+        <v>760.1957109766817</v>
       </c>
       <c r="AB16" t="n">
-        <v>907.8821273885592</v>
+        <v>1040.133309226109</v>
       </c>
       <c r="AC16" t="n">
-        <v>821.2351313711631</v>
+        <v>940.8644460298367</v>
       </c>
       <c r="AD16" t="n">
-        <v>663538.1188077459</v>
+        <v>760195.7109766817</v>
       </c>
       <c r="AE16" t="n">
-        <v>907882.1273885592</v>
+        <v>1040133.309226109</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.568408218911319e-07</v>
+        <v>1.782521878228275e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.00911458333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>821235.1313711631</v>
+        <v>940864.4460298367</v>
       </c>
     </row>
     <row r="17">
@@ -18544,28 +18544,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>643.3343166351729</v>
+        <v>751.9993338803554</v>
       </c>
       <c r="AB17" t="n">
-        <v>880.2383939271996</v>
+        <v>1028.918664484278</v>
       </c>
       <c r="AC17" t="n">
-        <v>796.2296770331319</v>
+        <v>930.7201112423137</v>
       </c>
       <c r="AD17" t="n">
-        <v>643334.3166351728</v>
+        <v>751999.3338803553</v>
       </c>
       <c r="AE17" t="n">
-        <v>880238.3939271995</v>
+        <v>1028918.664484278</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.594994973330939e-07</v>
+        <v>1.787474788925625e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>15.96354166666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>796229.6770331319</v>
+        <v>930720.1112423136</v>
       </c>
     </row>
     <row r="18">
@@ -18650,28 +18650,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>640.5973702960417</v>
+        <v>749.2623875412244</v>
       </c>
       <c r="AB18" t="n">
-        <v>876.49358320045</v>
+        <v>1025.173853757529</v>
       </c>
       <c r="AC18" t="n">
-        <v>792.8422657862684</v>
+        <v>927.33269999545</v>
       </c>
       <c r="AD18" t="n">
-        <v>640597.3702960417</v>
+        <v>749262.3875412244</v>
       </c>
       <c r="AE18" t="n">
-        <v>876493.5832004499</v>
+        <v>1025173.853757529</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.593583287255558e-07</v>
+        <v>1.787211802516916e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15.96354166666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>792842.2657862684</v>
+        <v>927332.69999545</v>
       </c>
     </row>
     <row r="19">
@@ -18756,28 +18756,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>640.6353914175429</v>
+        <v>749.3004086627254</v>
       </c>
       <c r="AB19" t="n">
-        <v>876.5456053762613</v>
+        <v>1025.22587593334</v>
       </c>
       <c r="AC19" t="n">
-        <v>792.8893230386341</v>
+        <v>927.3797572478156</v>
       </c>
       <c r="AD19" t="n">
-        <v>640635.3914175429</v>
+        <v>749300.4086627255</v>
       </c>
       <c r="AE19" t="n">
-        <v>876545.6053762613</v>
+        <v>1025225.87593334</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.612170487248036e-07</v>
+        <v>1.790674456898249e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>15.9375</v>
       </c>
       <c r="AH19" t="n">
-        <v>792889.323038634</v>
+        <v>927379.7572478156</v>
       </c>
     </row>
   </sheetData>
@@ -19053,28 +19053,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>814.1208288385445</v>
+        <v>925.2404123836146</v>
       </c>
       <c r="AB2" t="n">
-        <v>1113.916034493008</v>
+        <v>1265.954750949415</v>
       </c>
       <c r="AC2" t="n">
-        <v>1007.605451551968</v>
+        <v>1145.133806297455</v>
       </c>
       <c r="AD2" t="n">
-        <v>814120.8288385445</v>
+        <v>925240.4123836146</v>
       </c>
       <c r="AE2" t="n">
-        <v>1113916.034493008</v>
+        <v>1265954.750949415</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.132236649552128e-07</v>
+        <v>1.630104685397147e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.37760416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1007605.451551968</v>
+        <v>1145133.806297455</v>
       </c>
     </row>
     <row r="3">
@@ -19159,28 +19159,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>651.9673794391223</v>
+        <v>752.0517308411036</v>
       </c>
       <c r="AB3" t="n">
-        <v>892.0505313194142</v>
+        <v>1028.990356317565</v>
       </c>
       <c r="AC3" t="n">
-        <v>806.9144806110726</v>
+        <v>930.7849609076513</v>
       </c>
       <c r="AD3" t="n">
-        <v>651967.3794391223</v>
+        <v>752051.7308411036</v>
       </c>
       <c r="AE3" t="n">
-        <v>892050.5313194141</v>
+        <v>1028990.356317565</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.431398935048201e-07</v>
+        <v>1.89052142189178e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.57161458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>806914.4806110726</v>
+        <v>930784.9609076513</v>
       </c>
     </row>
     <row r="4">
@@ -19265,28 +19265,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>599.4216898646786</v>
+        <v>699.4207004120883</v>
       </c>
       <c r="AB4" t="n">
-        <v>820.1552006914432</v>
+        <v>956.9782585673963</v>
       </c>
       <c r="AC4" t="n">
-        <v>741.8807394325048</v>
+        <v>865.6455966971448</v>
       </c>
       <c r="AD4" t="n">
-        <v>599421.6898646785</v>
+        <v>699420.7004120883</v>
       </c>
       <c r="AE4" t="n">
-        <v>820155.2006914432</v>
+        <v>956978.2585673963</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.900003513339401e-07</v>
+        <v>1.98445308566267e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.73828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>741880.7394325049</v>
+        <v>865645.5966971448</v>
       </c>
     </row>
     <row r="5">
@@ -19371,28 +19371,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>575.2337211313421</v>
+        <v>664.1123376981939</v>
       </c>
       <c r="AB5" t="n">
-        <v>787.0601547726237</v>
+        <v>908.6677990072195</v>
       </c>
       <c r="AC5" t="n">
-        <v>711.9442382469888</v>
+        <v>821.9458195932353</v>
       </c>
       <c r="AD5" t="n">
-        <v>575233.7211313421</v>
+        <v>664112.3376981938</v>
       </c>
       <c r="AE5" t="n">
-        <v>787060.1547726237</v>
+        <v>908667.7990072195</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.015148712189546e-06</v>
+        <v>2.034862908479421e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.32161458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>711944.2382469887</v>
+        <v>821945.8195932354</v>
       </c>
     </row>
     <row r="6">
@@ -19477,28 +19477,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>556.9893028699539</v>
+        <v>645.8679194368058</v>
       </c>
       <c r="AB6" t="n">
-        <v>762.0973368204649</v>
+        <v>883.7049810550609</v>
       </c>
       <c r="AC6" t="n">
-        <v>689.3638366046491</v>
+        <v>799.3654179508957</v>
       </c>
       <c r="AD6" t="n">
-        <v>556989.3028699539</v>
+        <v>645867.9194368058</v>
       </c>
       <c r="AE6" t="n">
-        <v>762097.3368204649</v>
+        <v>883704.9810550609</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.028690137265641e-06</v>
+        <v>2.062006659226902e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.10677083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>689363.8366046491</v>
+        <v>799365.4179508957</v>
       </c>
     </row>
     <row r="7">
@@ -19583,28 +19583,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>530.4404930741894</v>
+        <v>630.3541627670276</v>
       </c>
       <c r="AB7" t="n">
-        <v>725.7720840070746</v>
+        <v>862.4783747608299</v>
       </c>
       <c r="AC7" t="n">
-        <v>656.5054149369562</v>
+        <v>780.1646491696572</v>
       </c>
       <c r="AD7" t="n">
-        <v>530440.4930741894</v>
+        <v>630354.1627670275</v>
       </c>
       <c r="AE7" t="n">
-        <v>725772.0840070746</v>
+        <v>862478.3747608298</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.040424342077822e-06</v>
+        <v>2.085527841735528e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.92447916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>656505.4149369561</v>
+        <v>780164.6491696571</v>
       </c>
     </row>
     <row r="8">
@@ -19689,28 +19689,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>516.6812521596303</v>
+        <v>605.6451200725027</v>
       </c>
       <c r="AB8" t="n">
-        <v>706.9460835729066</v>
+        <v>828.6703724601517</v>
       </c>
       <c r="AC8" t="n">
-        <v>639.4761415617676</v>
+        <v>749.5832351587264</v>
       </c>
       <c r="AD8" t="n">
-        <v>516681.2521596303</v>
+        <v>605645.1200725026</v>
       </c>
       <c r="AE8" t="n">
-        <v>706946.0835729066</v>
+        <v>828670.3724601517</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.04783139977922e-06</v>
+        <v>2.100375269306048e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.81380208333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>639476.1415617676</v>
+        <v>749583.2351587265</v>
       </c>
     </row>
     <row r="9">
@@ -19795,28 +19795,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>513.9091162556294</v>
+        <v>602.8729841685018</v>
       </c>
       <c r="AB9" t="n">
-        <v>703.153124931048</v>
+        <v>824.877413818293</v>
       </c>
       <c r="AC9" t="n">
-        <v>636.045177569237</v>
+        <v>746.1522711661959</v>
       </c>
       <c r="AD9" t="n">
-        <v>513909.1162556294</v>
+        <v>602872.9841685018</v>
       </c>
       <c r="AE9" t="n">
-        <v>703153.1249310479</v>
+        <v>824877.413818293</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.047475046487744e-06</v>
+        <v>2.099660960075852e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.8203125</v>
       </c>
       <c r="AH9" t="n">
-        <v>636045.177569237</v>
+        <v>746152.2711661959</v>
       </c>
     </row>
   </sheetData>
@@ -20092,28 +20092,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>644.3256720870614</v>
+        <v>750.6928213012104</v>
       </c>
       <c r="AB2" t="n">
-        <v>881.5948101919895</v>
+        <v>1027.131036334225</v>
       </c>
       <c r="AC2" t="n">
-        <v>797.4566388333526</v>
+        <v>929.1030918139494</v>
       </c>
       <c r="AD2" t="n">
-        <v>644325.6720870615</v>
+        <v>750692.8213012104</v>
       </c>
       <c r="AE2" t="n">
-        <v>881594.8101919895</v>
+        <v>1027131.036334225</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.155697407118145e-07</v>
+        <v>1.91542915539351e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.85416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>797456.6388333526</v>
+        <v>929103.0918139494</v>
       </c>
     </row>
     <row r="3">
@@ -20198,28 +20198,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>536.9789697045663</v>
+        <v>632.7008699118431</v>
       </c>
       <c r="AB3" t="n">
-        <v>734.7183161899868</v>
+        <v>865.689243005779</v>
       </c>
       <c r="AC3" t="n">
-        <v>664.597831276447</v>
+        <v>783.0690766557902</v>
       </c>
       <c r="AD3" t="n">
-        <v>536978.9697045663</v>
+        <v>632700.8699118431</v>
       </c>
       <c r="AE3" t="n">
-        <v>734718.3161899868</v>
+        <v>865689.243005779</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.026824283934622e-06</v>
+        <v>2.148180617443007e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.80989583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>664597.8312764469</v>
+        <v>783069.0766557902</v>
       </c>
     </row>
     <row r="4">
@@ -20304,28 +20304,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>505.1706445607777</v>
+        <v>590.2473852697336</v>
       </c>
       <c r="AB4" t="n">
-        <v>691.1967624439889</v>
+        <v>807.6025124028862</v>
       </c>
       <c r="AC4" t="n">
-        <v>625.2299135370827</v>
+        <v>730.5260620963991</v>
       </c>
       <c r="AD4" t="n">
-        <v>505170.6445607777</v>
+        <v>590247.3852697336</v>
       </c>
       <c r="AE4" t="n">
-        <v>691196.7624439888</v>
+        <v>807602.5124028862</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.064580830538359e-06</v>
+        <v>2.227169674153799e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.21744791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>625229.9135370826</v>
+        <v>730526.062096399</v>
       </c>
     </row>
     <row r="5">
@@ -20410,28 +20410,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>471.4518044563771</v>
+        <v>567.0883638090824</v>
       </c>
       <c r="AB5" t="n">
-        <v>645.06115784291</v>
+        <v>775.9153175365045</v>
       </c>
       <c r="AC5" t="n">
-        <v>583.4974262874031</v>
+        <v>701.8630486348076</v>
       </c>
       <c r="AD5" t="n">
-        <v>471451.8044563771</v>
+        <v>567088.3638090823</v>
       </c>
       <c r="AE5" t="n">
-        <v>645061.15784291</v>
+        <v>775915.3175365045</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.08369773369938e-06</v>
+        <v>2.267163431097957e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.93098958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>583497.4262874031</v>
+        <v>701863.0486348076</v>
       </c>
     </row>
     <row r="6">
@@ -20516,28 +20516,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>464.3142470111845</v>
+        <v>549.4762390661608</v>
       </c>
       <c r="AB6" t="n">
-        <v>635.2952368595866</v>
+        <v>751.817631471133</v>
       </c>
       <c r="AC6" t="n">
-        <v>574.6635510961719</v>
+        <v>680.0652119062004</v>
       </c>
       <c r="AD6" t="n">
-        <v>464314.2470111845</v>
+        <v>549476.2390661609</v>
       </c>
       <c r="AE6" t="n">
-        <v>635295.2368595866</v>
+        <v>751817.6314711331</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.090379369755659e-06</v>
+        <v>2.281141831583294e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>574663.5510961718</v>
+        <v>680065.2119062004</v>
       </c>
     </row>
     <row r="7">
@@ -20622,28 +20622,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>466.4036988927562</v>
+        <v>551.5656909477326</v>
       </c>
       <c r="AB7" t="n">
-        <v>638.1541171040642</v>
+        <v>754.6765117156108</v>
       </c>
       <c r="AC7" t="n">
-        <v>577.2495838225801</v>
+        <v>682.6512446326087</v>
       </c>
       <c r="AD7" t="n">
-        <v>466403.6988927562</v>
+        <v>551565.6909477327</v>
       </c>
       <c r="AE7" t="n">
-        <v>638154.1171040642</v>
+        <v>754676.5117156107</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.090299826469275e-06</v>
+        <v>2.280975422053706e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>577249.5838225802</v>
+        <v>682651.2446326087</v>
       </c>
     </row>
   </sheetData>
@@ -38428,28 +38428,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>534.924908118287</v>
+        <v>637.4080784380836</v>
       </c>
       <c r="AB2" t="n">
-        <v>731.9078585088376</v>
+        <v>872.1298533787649</v>
       </c>
       <c r="AC2" t="n">
-        <v>662.0555997318846</v>
+        <v>788.8950042142319</v>
       </c>
       <c r="AD2" t="n">
-        <v>534924.908118287</v>
+        <v>637408.0784380836</v>
       </c>
       <c r="AE2" t="n">
-        <v>731907.8585088376</v>
+        <v>872129.8533787649</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.997489903354284e-07</v>
+        <v>2.173310111049205e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.86458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>662055.5997318847</v>
+        <v>788895.0042142319</v>
       </c>
     </row>
     <row r="3">
@@ -38534,28 +38534,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>461.037395098916</v>
+        <v>543.0752253760475</v>
       </c>
       <c r="AB3" t="n">
-        <v>630.8117035087172</v>
+        <v>743.0594821475262</v>
       </c>
       <c r="AC3" t="n">
-        <v>570.607919875631</v>
+        <v>672.1429280618986</v>
       </c>
       <c r="AD3" t="n">
-        <v>461037.395098916</v>
+        <v>543075.2253760474</v>
       </c>
       <c r="AE3" t="n">
-        <v>630811.7035087172</v>
+        <v>743059.4821475262</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.094128586377794e-06</v>
+        <v>2.378477740462656e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.32161458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>570607.919875631</v>
+        <v>672142.9280618986</v>
       </c>
     </row>
     <row r="4">
@@ -38640,28 +38640,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>426.0055361974707</v>
+        <v>518.2233213143735</v>
       </c>
       <c r="AB4" t="n">
-        <v>582.8795686632209</v>
+        <v>709.0560106217159</v>
       </c>
       <c r="AC4" t="n">
-        <v>527.2503607066151</v>
+        <v>641.3847001343397</v>
       </c>
       <c r="AD4" t="n">
-        <v>426005.5361974707</v>
+        <v>518223.3213143735</v>
       </c>
       <c r="AE4" t="n">
-        <v>582879.5686632209</v>
+        <v>709056.0106217159</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.121446830393544e-06</v>
+        <v>2.437863662838651e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.92447916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>527250.360706615</v>
+        <v>641384.7001343397</v>
       </c>
     </row>
     <row r="5">
@@ -38746,28 +38746,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>425.8099744687715</v>
+        <v>518.0277595856743</v>
       </c>
       <c r="AB5" t="n">
-        <v>582.61199247844</v>
+        <v>708.7884344369349</v>
       </c>
       <c r="AC5" t="n">
-        <v>527.0083216173641</v>
+        <v>641.1426610450889</v>
       </c>
       <c r="AD5" t="n">
-        <v>425809.9744687715</v>
+        <v>518027.7595856743</v>
       </c>
       <c r="AE5" t="n">
-        <v>582611.9924784401</v>
+        <v>708788.434436935</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.122818228185499e-06</v>
+        <v>2.440844883841462e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.90494791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>527008.3216173641</v>
+        <v>641142.6610450889</v>
       </c>
     </row>
   </sheetData>
@@ -39043,28 +39043,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>358.2460150670258</v>
+        <v>434.2597824493298</v>
       </c>
       <c r="AB2" t="n">
-        <v>490.1680025134508</v>
+        <v>594.1733925366585</v>
       </c>
       <c r="AC2" t="n">
-        <v>443.3870563086786</v>
+        <v>537.4663178805531</v>
       </c>
       <c r="AD2" t="n">
-        <v>358246.0150670258</v>
+        <v>434259.7824493298</v>
       </c>
       <c r="AE2" t="n">
-        <v>490168.0025134508</v>
+        <v>594173.3925366586</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.165973186920501e-06</v>
+        <v>2.773298663835333e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.43880208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>443387.0563086786</v>
+        <v>537466.3178805531</v>
       </c>
     </row>
     <row r="3">
@@ -39149,28 +39149,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>358.3276170425602</v>
+        <v>434.3413844248643</v>
       </c>
       <c r="AB3" t="n">
-        <v>490.279653936402</v>
+        <v>594.2850439596099</v>
       </c>
       <c r="AC3" t="n">
-        <v>443.4880518765273</v>
+        <v>537.5673134484016</v>
       </c>
       <c r="AD3" t="n">
-        <v>358327.6170425602</v>
+        <v>434341.3844248643</v>
       </c>
       <c r="AE3" t="n">
-        <v>490279.6539364021</v>
+        <v>594285.0439596099</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.170771672780779e-06</v>
+        <v>2.784711991838088e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.3671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>443488.0518765273</v>
+        <v>537567.3134484016</v>
       </c>
     </row>
   </sheetData>
@@ -39446,28 +39446,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>995.278364958469</v>
+        <v>1121.948932925138</v>
       </c>
       <c r="AB2" t="n">
-        <v>1361.783767518727</v>
+        <v>1535.100026921779</v>
       </c>
       <c r="AC2" t="n">
-        <v>1231.817036022261</v>
+        <v>1388.592234878783</v>
       </c>
       <c r="AD2" t="n">
-        <v>995278.3649584689</v>
+        <v>1121948.932925138</v>
       </c>
       <c r="AE2" t="n">
-        <v>1361783.767518727</v>
+        <v>1535100.026921779</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.270775808349614e-07</v>
+        <v>1.41095089943322e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.04427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1231817.036022261</v>
+        <v>1388592.234878783</v>
       </c>
     </row>
     <row r="3">
@@ -39552,28 +39552,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>764.5449539410915</v>
+        <v>868.1690093054532</v>
       </c>
       <c r="AB3" t="n">
-        <v>1046.084135325073</v>
+        <v>1187.867139445269</v>
       </c>
       <c r="AC3" t="n">
-        <v>946.247333637952</v>
+        <v>1074.498766838613</v>
       </c>
       <c r="AD3" t="n">
-        <v>764544.9539410915</v>
+        <v>868169.0093054532</v>
       </c>
       <c r="AE3" t="n">
-        <v>1046084.135325073</v>
+        <v>1187867.139445269</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.726752787680519e-07</v>
+        <v>1.693494617282679e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.36588541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>946247.333637952</v>
+        <v>1074498.766838613</v>
       </c>
     </row>
     <row r="4">
@@ -39658,28 +39658,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>697.9815890429326</v>
+        <v>801.5203035527226</v>
       </c>
       <c r="AB4" t="n">
-        <v>955.0092029030048</v>
+        <v>1096.675439901004</v>
       </c>
       <c r="AC4" t="n">
-        <v>863.864464941776</v>
+        <v>992.0102751104984</v>
       </c>
       <c r="AD4" t="n">
-        <v>697981.5890429326</v>
+        <v>801520.3035527226</v>
       </c>
       <c r="AE4" t="n">
-        <v>955009.2029030048</v>
+        <v>1096675.439901004</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.275760001733262e-07</v>
+        <v>1.800033760130885e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.27864583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>863864.464941776</v>
+        <v>992010.2751104983</v>
       </c>
     </row>
     <row r="5">
@@ -39764,28 +39764,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>658.6266691857783</v>
+        <v>762.2506350415888</v>
       </c>
       <c r="AB5" t="n">
-        <v>901.1620653379182</v>
+        <v>1042.944946988566</v>
       </c>
       <c r="AC5" t="n">
-        <v>815.1564226109688</v>
+        <v>943.4077450304036</v>
       </c>
       <c r="AD5" t="n">
-        <v>658626.6691857782</v>
+        <v>762250.6350415888</v>
       </c>
       <c r="AE5" t="n">
-        <v>901162.0653379182</v>
+        <v>1042944.946988567</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.557649356033886e-07</v>
+        <v>1.854736593566399e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.77083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>815156.4226109688</v>
+        <v>943407.7450304036</v>
       </c>
     </row>
     <row r="6">
@@ -39870,28 +39870,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>638.6734980575899</v>
+        <v>730.7742971207979</v>
       </c>
       <c r="AB6" t="n">
-        <v>873.8612563285471</v>
+        <v>999.8776328073166</v>
       </c>
       <c r="AC6" t="n">
-        <v>790.4611644965261</v>
+        <v>904.450714869257</v>
       </c>
       <c r="AD6" t="n">
-        <v>638673.4980575899</v>
+        <v>730774.2971207979</v>
       </c>
       <c r="AE6" t="n">
-        <v>873861.2563285471</v>
+        <v>999877.6328073166</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.739584930556297e-07</v>
+        <v>1.890042614447487e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.45833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>790461.1644965261</v>
+        <v>904450.7148692571</v>
       </c>
     </row>
     <row r="7">
@@ -39976,28 +39976,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>623.3762240953643</v>
+        <v>715.4770231585724</v>
       </c>
       <c r="AB7" t="n">
-        <v>852.9308512253326</v>
+        <v>978.9472277041021</v>
       </c>
       <c r="AC7" t="n">
-        <v>771.5283278803543</v>
+        <v>885.5178782530853</v>
       </c>
       <c r="AD7" t="n">
-        <v>623376.2240953642</v>
+        <v>715477.0231585724</v>
       </c>
       <c r="AE7" t="n">
-        <v>852930.8512253326</v>
+        <v>978947.2277041022</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.859972611126608e-07</v>
+        <v>1.913404785233483e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.25651041666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>771528.3278803542</v>
+        <v>885517.8782530853</v>
       </c>
     </row>
     <row r="8">
@@ -40082,28 +40082,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>610.8451894752887</v>
+        <v>702.9459885384967</v>
       </c>
       <c r="AB8" t="n">
-        <v>835.7853368279146</v>
+        <v>961.8017133066841</v>
       </c>
       <c r="AC8" t="n">
-        <v>756.0191573131452</v>
+        <v>870.0087076858763</v>
       </c>
       <c r="AD8" t="n">
-        <v>610845.1894752887</v>
+        <v>702945.9885384968</v>
       </c>
       <c r="AE8" t="n">
-        <v>835785.3368279147</v>
+        <v>961801.713306684</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.935553424899788e-07</v>
+        <v>1.928071833150254e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.1328125</v>
       </c>
       <c r="AH8" t="n">
-        <v>756019.1573131452</v>
+        <v>870008.7076858763</v>
       </c>
     </row>
     <row r="9">
@@ -40188,28 +40188,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>586.8426256227358</v>
+        <v>690.3812506239749</v>
       </c>
       <c r="AB9" t="n">
-        <v>802.9439700464695</v>
+        <v>944.6100845749203</v>
       </c>
       <c r="AC9" t="n">
-        <v>726.3121244841735</v>
+        <v>854.4578238716696</v>
       </c>
       <c r="AD9" t="n">
-        <v>586842.6256227358</v>
+        <v>690381.2506239749</v>
       </c>
       <c r="AE9" t="n">
-        <v>802943.9700464695</v>
+        <v>944610.0845749202</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.002172047643273e-06</v>
+        <v>1.944793223283381e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.99609375</v>
       </c>
       <c r="AH9" t="n">
-        <v>726312.1244841735</v>
+        <v>854457.8238716696</v>
       </c>
     </row>
     <row r="10">
@@ -40294,28 +40294,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>571.0811735087661</v>
+        <v>674.619798510005</v>
       </c>
       <c r="AB10" t="n">
-        <v>781.3784559179436</v>
+        <v>923.0445704463943</v>
       </c>
       <c r="AC10" t="n">
-        <v>706.8047927566851</v>
+        <v>834.9504921441809</v>
       </c>
       <c r="AD10" t="n">
-        <v>571081.1735087661</v>
+        <v>674619.798510005</v>
       </c>
       <c r="AE10" t="n">
-        <v>781378.4559179436</v>
+        <v>923044.5704463944</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.007391309050411e-06</v>
+        <v>1.954921608164017e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.91145833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>706804.7927566851</v>
+        <v>834950.4921441809</v>
       </c>
     </row>
     <row r="11">
@@ -40400,28 +40400,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>564.5317138272734</v>
+        <v>668.0703388285124</v>
       </c>
       <c r="AB11" t="n">
-        <v>772.4171962399568</v>
+        <v>914.0833107684075</v>
       </c>
       <c r="AC11" t="n">
-        <v>698.6987831251581</v>
+        <v>826.8444825126542</v>
       </c>
       <c r="AD11" t="n">
-        <v>564531.7138272733</v>
+        <v>668070.3388285124</v>
       </c>
       <c r="AE11" t="n">
-        <v>772417.1962399568</v>
+        <v>914083.3107684075</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.009459318287202e-06</v>
+        <v>1.958934741795968e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.87890625</v>
       </c>
       <c r="AH11" t="n">
-        <v>698698.7831251582</v>
+        <v>826844.4825126542</v>
       </c>
     </row>
     <row r="12">
@@ -40506,28 +40506,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>562.952446189327</v>
+        <v>666.491071190566</v>
       </c>
       <c r="AB12" t="n">
-        <v>770.2563725853478</v>
+        <v>911.9224871137985</v>
       </c>
       <c r="AC12" t="n">
-        <v>696.74418544741</v>
+        <v>824.8898848349061</v>
       </c>
       <c r="AD12" t="n">
-        <v>562952.446189327</v>
+        <v>666491.0711905661</v>
       </c>
       <c r="AE12" t="n">
-        <v>770256.3725853477</v>
+        <v>911922.4871137985</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.011059563529956e-06</v>
+        <v>1.962040142820691e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.85286458333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>696744.18544741</v>
+        <v>824889.8848349061</v>
       </c>
     </row>
     <row r="13">
@@ -40612,28 +40612,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>564.6426054395407</v>
+        <v>668.1812304407796</v>
       </c>
       <c r="AB13" t="n">
-        <v>772.5689230360535</v>
+        <v>914.2350375645042</v>
       </c>
       <c r="AC13" t="n">
-        <v>698.8360293287853</v>
+        <v>826.9817287162815</v>
       </c>
       <c r="AD13" t="n">
-        <v>564642.6054395407</v>
+        <v>668181.2304407796</v>
       </c>
       <c r="AE13" t="n">
-        <v>772568.9230360535</v>
+        <v>914235.0375645042</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.010862610269309e-06</v>
+        <v>1.961657939617648e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.85286458333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>698836.0293287854</v>
+        <v>826981.7287162815</v>
       </c>
     </row>
   </sheetData>
@@ -40909,28 +40909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1261.465188005784</v>
+        <v>1417.208646304831</v>
       </c>
       <c r="AB2" t="n">
-        <v>1725.992322145894</v>
+        <v>1939.087392707104</v>
       </c>
       <c r="AC2" t="n">
-        <v>1561.266037365728</v>
+        <v>1754.023613473386</v>
       </c>
       <c r="AD2" t="n">
-        <v>1261465.188005784</v>
+        <v>1417208.646304831</v>
       </c>
       <c r="AE2" t="n">
-        <v>1725992.322145894</v>
+        <v>1939087.392707104</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.283486639471358e-07</v>
+        <v>1.179028550286436e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.58333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1561266.037365728</v>
+        <v>1754023.613473386</v>
       </c>
     </row>
     <row r="3">
@@ -41015,28 +41015,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>913.1385860824548</v>
+        <v>1032.836300923107</v>
       </c>
       <c r="AB3" t="n">
-        <v>1249.396498309272</v>
+        <v>1413.172192444739</v>
       </c>
       <c r="AC3" t="n">
-        <v>1130.155850049634</v>
+        <v>1278.301021797442</v>
       </c>
       <c r="AD3" t="n">
-        <v>913138.5860824548</v>
+        <v>1032836.300923107</v>
       </c>
       <c r="AE3" t="n">
-        <v>1249396.498309272</v>
+        <v>1413172.192444739</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.929206899911319e-07</v>
+        <v>1.487830221106379e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.47916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1130155.850049634</v>
+        <v>1278301.021797442</v>
       </c>
     </row>
     <row r="4">
@@ -41121,28 +41121,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>826.0788857591059</v>
+        <v>933.8751107502056</v>
       </c>
       <c r="AB4" t="n">
-        <v>1130.277575523959</v>
+        <v>1277.769126190592</v>
       </c>
       <c r="AC4" t="n">
-        <v>1022.405470070492</v>
+        <v>1155.820634147193</v>
       </c>
       <c r="AD4" t="n">
-        <v>826078.8857591059</v>
+        <v>933875.1107502056</v>
       </c>
       <c r="AE4" t="n">
-        <v>1130277.575523959</v>
+        <v>1277769.126190592</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.551719508156158e-07</v>
+        <v>1.6046380031781e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.05989583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1022405.470070492</v>
+        <v>1155820.634147193</v>
       </c>
     </row>
     <row r="5">
@@ -41227,28 +41227,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>775.3874898214472</v>
+        <v>883.0983739579752</v>
       </c>
       <c r="AB5" t="n">
-        <v>1060.919371255498</v>
+        <v>1208.294154799934</v>
       </c>
       <c r="AC5" t="n">
-        <v>959.6667154725625</v>
+        <v>1092.976256517325</v>
       </c>
       <c r="AD5" t="n">
-        <v>775387.4898214472</v>
+        <v>883098.3739579752</v>
       </c>
       <c r="AE5" t="n">
-        <v>1060919.371255498</v>
+        <v>1208294.154799934</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.895951899376917e-07</v>
+        <v>1.669229501572181e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.36328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>959666.7154725625</v>
+        <v>1092976.256517325</v>
       </c>
     </row>
     <row r="6">
@@ -41333,28 +41333,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>739.7294098187348</v>
+        <v>847.5255453012833</v>
       </c>
       <c r="AB6" t="n">
-        <v>1012.130413072323</v>
+        <v>1159.621841269408</v>
       </c>
       <c r="AC6" t="n">
-        <v>915.5341069826565</v>
+        <v>1048.949160278131</v>
       </c>
       <c r="AD6" t="n">
-        <v>739729.4098187347</v>
+        <v>847525.5453012832</v>
       </c>
       <c r="AE6" t="n">
-        <v>1012130.413072323</v>
+        <v>1159621.841269408</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.10282346736072e-07</v>
+        <v>1.70804672183382e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.96614583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>915534.1069826564</v>
+        <v>1048949.160278131</v>
       </c>
     </row>
     <row r="7">
@@ -41439,28 +41439,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>722.3029255089425</v>
+        <v>830.099060991491</v>
       </c>
       <c r="AB7" t="n">
-        <v>988.286728437437</v>
+        <v>1135.778156634522</v>
       </c>
       <c r="AC7" t="n">
-        <v>893.9660301445022</v>
+        <v>1027.381083439977</v>
       </c>
       <c r="AD7" t="n">
-        <v>722302.9255089425</v>
+        <v>830099.060991491</v>
       </c>
       <c r="AE7" t="n">
-        <v>988286.728437437</v>
+        <v>1135778.156634522</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.242793909001137e-07</v>
+        <v>1.734310666735617e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.71223958333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>893966.0301445022</v>
+        <v>1027381.083439977</v>
       </c>
     </row>
     <row r="8">
@@ -41545,28 +41545,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>708.7365993873033</v>
+        <v>816.5327348698517</v>
       </c>
       <c r="AB8" t="n">
-        <v>969.7246825337419</v>
+        <v>1117.216110730827</v>
       </c>
       <c r="AC8" t="n">
-        <v>877.1755198498608</v>
+        <v>1010.590573145336</v>
       </c>
       <c r="AD8" t="n">
-        <v>708736.5993873032</v>
+        <v>816532.7348698516</v>
       </c>
       <c r="AE8" t="n">
-        <v>969724.6825337419</v>
+        <v>1117216.110730827</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.352160643910005e-07</v>
+        <v>1.754832155887699e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.51692708333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>877175.5198498608</v>
+        <v>1010590.573145336</v>
       </c>
     </row>
     <row r="9">
@@ -41651,28 +41651,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>698.5498621219422</v>
+        <v>794.3592564089175</v>
       </c>
       <c r="AB9" t="n">
-        <v>955.7867392001447</v>
+        <v>1086.877379275746</v>
       </c>
       <c r="AC9" t="n">
-        <v>864.5677942659956</v>
+        <v>983.1473276396511</v>
       </c>
       <c r="AD9" t="n">
-        <v>698549.8621219422</v>
+        <v>794359.2564089175</v>
       </c>
       <c r="AE9" t="n">
-        <v>955786.7392001447</v>
+        <v>1086877.379275746</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.418587294180034e-07</v>
+        <v>1.76729640092584e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.39973958333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>864567.7942659956</v>
+        <v>983147.327639651</v>
       </c>
     </row>
     <row r="10">
@@ -41757,28 +41757,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>689.2521316157674</v>
+        <v>785.0615259027428</v>
       </c>
       <c r="AB10" t="n">
-        <v>943.065174134676</v>
+        <v>1074.155814210278</v>
       </c>
       <c r="AC10" t="n">
-        <v>853.0603575155467</v>
+        <v>971.639890889202</v>
       </c>
       <c r="AD10" t="n">
-        <v>689252.1316157675</v>
+        <v>785061.5259027428</v>
       </c>
       <c r="AE10" t="n">
-        <v>943065.174134676</v>
+        <v>1074155.814210278</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.479320231569774e-07</v>
+        <v>1.778692282103569e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.29557291666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>853060.3575155467</v>
+        <v>971639.890889202</v>
       </c>
     </row>
     <row r="11">
@@ -41863,28 +41863,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>678.2891740426879</v>
+        <v>774.0985683296632</v>
       </c>
       <c r="AB11" t="n">
-        <v>928.0651719316347</v>
+        <v>1059.155812007237</v>
       </c>
       <c r="AC11" t="n">
-        <v>839.4919344701284</v>
+        <v>958.0714678437838</v>
       </c>
       <c r="AD11" t="n">
-        <v>678289.174042688</v>
+        <v>774098.5683296631</v>
       </c>
       <c r="AE11" t="n">
-        <v>928065.1719316348</v>
+        <v>1059155.812007237</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.545746881839804e-07</v>
+        <v>1.79115652714171e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.17838541666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>839491.9344701284</v>
+        <v>958071.4678437838</v>
       </c>
     </row>
     <row r="12">
@@ -41969,28 +41969,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>666.6419508929577</v>
+        <v>762.4513451799329</v>
       </c>
       <c r="AB12" t="n">
-        <v>912.1289273789533</v>
+        <v>1043.219567454555</v>
       </c>
       <c r="AC12" t="n">
-        <v>825.0766227308952</v>
+        <v>943.6561561045507</v>
       </c>
       <c r="AD12" t="n">
-        <v>666641.9508929576</v>
+        <v>762451.3451799329</v>
       </c>
       <c r="AE12" t="n">
-        <v>912128.9273789533</v>
+        <v>1043219.567454555</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.588686966478644e-07</v>
+        <v>1.799213771255651e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.10677083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>825076.6227308952</v>
+        <v>943656.1561045507</v>
       </c>
     </row>
     <row r="13">
@@ -42075,28 +42075,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>662.0076253514982</v>
+        <v>757.8170196384734</v>
       </c>
       <c r="AB13" t="n">
-        <v>905.7880387211151</v>
+        <v>1036.878678796717</v>
       </c>
       <c r="AC13" t="n">
-        <v>819.3408995870677</v>
+        <v>937.920432960723</v>
       </c>
       <c r="AD13" t="n">
-        <v>662007.6253514981</v>
+        <v>757817.0196384734</v>
       </c>
       <c r="AE13" t="n">
-        <v>905788.0387211151</v>
+        <v>1036878.678796717</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.607428771376259e-07</v>
+        <v>1.802730468962841e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.07421875</v>
       </c>
       <c r="AH13" t="n">
-        <v>819340.8995870678</v>
+        <v>937920.4329607231</v>
       </c>
     </row>
     <row r="14">
@@ -42181,28 +42181,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>638.6978932830638</v>
+        <v>746.4086879110407</v>
       </c>
       <c r="AB14" t="n">
-        <v>873.8946349522819</v>
+        <v>1021.269296027169</v>
       </c>
       <c r="AC14" t="n">
-        <v>790.4913575112587</v>
+        <v>923.8007877747946</v>
       </c>
       <c r="AD14" t="n">
-        <v>638697.8932830638</v>
+        <v>746408.6879110407</v>
       </c>
       <c r="AE14" t="n">
-        <v>873894.6349522818</v>
+        <v>1021269.296027169</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.660332853555604e-07</v>
+        <v>1.812657349832503e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.98958333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>790491.3575112587</v>
+        <v>923800.7877747946</v>
       </c>
     </row>
     <row r="15">
@@ -42287,28 +42287,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>631.3484546001836</v>
+        <v>739.0592492281605</v>
       </c>
       <c r="AB15" t="n">
-        <v>863.8388087120138</v>
+        <v>1011.213469786901</v>
       </c>
       <c r="AC15" t="n">
-        <v>781.395245213921</v>
+        <v>914.704675477457</v>
       </c>
       <c r="AD15" t="n">
-        <v>631348.4546001835</v>
+        <v>739059.2492281605</v>
       </c>
       <c r="AE15" t="n">
-        <v>863838.8087120138</v>
+        <v>1011213.469786901</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.672431993426214e-07</v>
+        <v>1.814927623035879e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.97005208333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>781395.2452139211</v>
+        <v>914704.675477457</v>
       </c>
     </row>
     <row r="16">
@@ -42393,28 +42393,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>625.1600921260235</v>
+        <v>732.8708867540005</v>
       </c>
       <c r="AB16" t="n">
-        <v>855.3716181635838</v>
+        <v>1002.746279238471</v>
       </c>
       <c r="AC16" t="n">
-        <v>773.7361514476568</v>
+        <v>907.0455817111927</v>
       </c>
       <c r="AD16" t="n">
-        <v>625160.0921260235</v>
+        <v>732870.8867540004</v>
       </c>
       <c r="AE16" t="n">
-        <v>855371.6181635838</v>
+        <v>1002746.279238471</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.699714367644262e-07</v>
+        <v>1.820046866533687e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>15.92447916666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>773736.1514476568</v>
+        <v>907045.5817111926</v>
       </c>
     </row>
     <row r="17">
@@ -42499,28 +42499,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>624.2157803615371</v>
+        <v>731.9265749895139</v>
       </c>
       <c r="AB17" t="n">
-        <v>854.0795691473186</v>
+        <v>1001.454230222206</v>
       </c>
       <c r="AC17" t="n">
-        <v>772.5674137761018</v>
+        <v>905.8768440396377</v>
       </c>
       <c r="AD17" t="n">
-        <v>624215.7803615371</v>
+        <v>731926.574989514</v>
       </c>
       <c r="AE17" t="n">
-        <v>854079.5691473186</v>
+        <v>1001454.230222206</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.700900557827657e-07</v>
+        <v>1.820269442337939e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>15.92447916666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>772567.4137761018</v>
+        <v>905876.8440396377</v>
       </c>
     </row>
     <row r="18">
@@ -42605,28 +42605,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>626.1817500917206</v>
+        <v>733.8925447196974</v>
       </c>
       <c r="AB18" t="n">
-        <v>856.7694956646187</v>
+        <v>1004.144156739506</v>
       </c>
       <c r="AC18" t="n">
-        <v>775.0006174819263</v>
+        <v>908.3100477454622</v>
       </c>
       <c r="AD18" t="n">
-        <v>626181.7500917206</v>
+        <v>733892.5447196974</v>
       </c>
       <c r="AE18" t="n">
-        <v>856769.4956646187</v>
+        <v>1004144.156739506</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.69829093942419e-07</v>
+        <v>1.819779775568584e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15.92447916666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>775000.6174819262</v>
+        <v>908310.0477454622</v>
       </c>
     </row>
   </sheetData>
@@ -42902,28 +42902,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>317.372227951511</v>
+        <v>399.7286237660398</v>
       </c>
       <c r="AB2" t="n">
-        <v>434.242683757781</v>
+        <v>546.9263378189769</v>
       </c>
       <c r="AC2" t="n">
-        <v>392.7991714833721</v>
+        <v>494.7284557534691</v>
       </c>
       <c r="AD2" t="n">
-        <v>317372.227951511</v>
+        <v>399728.6237660398</v>
       </c>
       <c r="AE2" t="n">
-        <v>434242.683757781</v>
+        <v>546926.3378189768</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.168988848304417e-06</v>
+        <v>2.923552395593127e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.97916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>392799.1714833721</v>
+        <v>494728.4557534691</v>
       </c>
     </row>
   </sheetData>
@@ -43199,28 +43199,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>703.0480030373147</v>
+        <v>811.0168805801517</v>
       </c>
       <c r="AB2" t="n">
-        <v>961.9412940445288</v>
+        <v>1109.669075549342</v>
       </c>
       <c r="AC2" t="n">
-        <v>870.1349670340039</v>
+        <v>1003.763816409242</v>
       </c>
       <c r="AD2" t="n">
-        <v>703048.0030373147</v>
+        <v>811016.8805801517</v>
       </c>
       <c r="AE2" t="n">
-        <v>961941.2940445289</v>
+        <v>1109669.075549342</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.798590242321401e-07</v>
+        <v>1.811879134078117e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.3359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>870134.9670340039</v>
+        <v>1003763.816409242</v>
       </c>
     </row>
     <row r="3">
@@ -43305,28 +43305,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>583.8656935584604</v>
+        <v>670.3773588617548</v>
       </c>
       <c r="AB3" t="n">
-        <v>798.8708002631541</v>
+        <v>917.2398773564307</v>
       </c>
       <c r="AC3" t="n">
-        <v>722.627692308248</v>
+        <v>829.6997908157855</v>
       </c>
       <c r="AD3" t="n">
-        <v>583865.6935584605</v>
+        <v>670377.3588617549</v>
       </c>
       <c r="AE3" t="n">
-        <v>798870.8002631541</v>
+        <v>917239.8773564307</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.964942338586367e-07</v>
+        <v>2.052064091896222e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.0703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>722627.692308248</v>
+        <v>829699.7908157855</v>
       </c>
     </row>
     <row r="4">
@@ -43411,28 +43411,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>538.0250672553616</v>
+        <v>624.4513917040845</v>
       </c>
       <c r="AB4" t="n">
-        <v>736.1496330095517</v>
+        <v>854.4019429806307</v>
       </c>
       <c r="AC4" t="n">
-        <v>665.8925452276184</v>
+        <v>772.859020703217</v>
       </c>
       <c r="AD4" t="n">
-        <v>538025.0672553616</v>
+        <v>624451.3917040845</v>
       </c>
       <c r="AE4" t="n">
-        <v>736149.6330095518</v>
+        <v>854401.9429806307</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.038507992164955e-06</v>
+        <v>2.138582329389841e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.38020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>665892.5452276184</v>
+        <v>772859.020703217</v>
       </c>
     </row>
     <row r="5">
@@ -43517,28 +43517,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>514.4483910653681</v>
+        <v>600.874715514091</v>
       </c>
       <c r="AB5" t="n">
-        <v>703.8909845168579</v>
+        <v>822.1432944879368</v>
       </c>
       <c r="AC5" t="n">
-        <v>636.7126168717697</v>
+        <v>743.6790923473684</v>
       </c>
       <c r="AD5" t="n">
-        <v>514448.3910653681</v>
+        <v>600874.715514091</v>
       </c>
       <c r="AE5" t="n">
-        <v>703890.9845168579</v>
+        <v>822143.2944879368</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.059750022950426e-06</v>
+        <v>2.182325692003219e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.0546875</v>
       </c>
       <c r="AH5" t="n">
-        <v>636712.6168717697</v>
+        <v>743679.0923473684</v>
       </c>
     </row>
     <row r="6">
@@ -43623,28 +43623,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>484.8674156902258</v>
+        <v>571.3789914849691</v>
       </c>
       <c r="AB6" t="n">
-        <v>663.4169889880584</v>
+        <v>781.7859436117867</v>
       </c>
       <c r="AC6" t="n">
-        <v>600.1014026706293</v>
+        <v>707.1733903969402</v>
       </c>
       <c r="AD6" t="n">
-        <v>484867.4156902258</v>
+        <v>571378.9914849692</v>
       </c>
       <c r="AE6" t="n">
-        <v>663416.9889880584</v>
+        <v>781785.9436117867</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.073754609052533e-06</v>
+        <v>2.211165104501093e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.83984375</v>
       </c>
       <c r="AH6" t="n">
-        <v>600101.4026706293</v>
+        <v>707173.3903969403</v>
       </c>
     </row>
     <row r="7">
@@ -43729,28 +43729,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>481.4504915330599</v>
+        <v>567.9620673278032</v>
       </c>
       <c r="AB7" t="n">
-        <v>658.7418026121692</v>
+        <v>777.1107572358974</v>
       </c>
       <c r="AC7" t="n">
-        <v>595.8724095207897</v>
+        <v>702.9443972471005</v>
       </c>
       <c r="AD7" t="n">
-        <v>481450.4915330599</v>
+        <v>567962.0673278032</v>
       </c>
       <c r="AE7" t="n">
-        <v>658741.8026121692</v>
+        <v>777110.7572358974</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.076367404967104e-06</v>
+        <v>2.216545591907412e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.80078125</v>
       </c>
       <c r="AH7" t="n">
-        <v>595872.4095207896</v>
+        <v>702944.3972471005</v>
       </c>
     </row>
     <row r="8">
@@ -43835,28 +43835,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>483.6865060087788</v>
+        <v>570.1980818035223</v>
       </c>
       <c r="AB8" t="n">
-        <v>661.8012162638444</v>
+        <v>780.1701708875727</v>
       </c>
       <c r="AC8" t="n">
-        <v>598.6398370274632</v>
+        <v>705.711824753774</v>
       </c>
       <c r="AD8" t="n">
-        <v>483686.5060087789</v>
+        <v>570198.0818035223</v>
       </c>
       <c r="AE8" t="n">
-        <v>661801.2162638444</v>
+        <v>780170.1708875727</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.076236765171376e-06</v>
+        <v>2.216276567537096e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.80729166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>598639.8370274631</v>
+        <v>705711.824753774</v>
       </c>
     </row>
   </sheetData>
@@ -44132,28 +44132,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>865.9157091705093</v>
+        <v>989.7047489324468</v>
       </c>
       <c r="AB2" t="n">
-        <v>1184.784074792053</v>
+        <v>1354.157700181339</v>
       </c>
       <c r="AC2" t="n">
-        <v>1071.709945548792</v>
+        <v>1224.9187898483</v>
       </c>
       <c r="AD2" t="n">
-        <v>865915.7091705094</v>
+        <v>989704.7489324468</v>
       </c>
       <c r="AE2" t="n">
-        <v>1184784.074792053</v>
+        <v>1354157.700181339</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.824405374899004e-07</v>
+        <v>1.550158761289806e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.93098958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1071709.945548792</v>
+        <v>1224918.7898483</v>
       </c>
     </row>
     <row r="3">
@@ -44238,28 +44238,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>684.8927894603854</v>
+        <v>797.3351810389777</v>
       </c>
       <c r="AB3" t="n">
-        <v>937.1005298770798</v>
+        <v>1090.949170643124</v>
       </c>
       <c r="AC3" t="n">
-        <v>847.6649705344646</v>
+        <v>986.830512953721</v>
       </c>
       <c r="AD3" t="n">
-        <v>684892.7894603855</v>
+        <v>797335.1810389777</v>
       </c>
       <c r="AE3" t="n">
-        <v>937100.5298770798</v>
+        <v>1090949.170643124</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.188343323159755e-07</v>
+        <v>1.820379980544993e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.82552083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>847664.9705344646</v>
+        <v>986830.512953721</v>
       </c>
     </row>
     <row r="4">
@@ -44344,28 +44344,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>628.7916574403612</v>
+        <v>730.0580825447516</v>
       </c>
       <c r="AB4" t="n">
-        <v>860.3404860400152</v>
+        <v>998.897676427213</v>
       </c>
       <c r="AC4" t="n">
-        <v>778.2307975478113</v>
+        <v>903.5642841506931</v>
       </c>
       <c r="AD4" t="n">
-        <v>628791.6574403612</v>
+        <v>730058.0825447517</v>
       </c>
       <c r="AE4" t="n">
-        <v>860340.4860400152</v>
+        <v>998897.676427213</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.684412233888307e-07</v>
+        <v>1.918660364973475e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.9140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>778230.7975478113</v>
+        <v>903564.2841506931</v>
       </c>
     </row>
     <row r="5">
@@ -44450,28 +44450,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>603.1752172825203</v>
+        <v>693.1804245666881</v>
       </c>
       <c r="AB5" t="n">
-        <v>825.290942498477</v>
+        <v>948.4400378541791</v>
       </c>
       <c r="AC5" t="n">
-        <v>746.5263332495341</v>
+        <v>857.9222517853291</v>
       </c>
       <c r="AD5" t="n">
-        <v>603175.2172825203</v>
+        <v>693180.4245666881</v>
       </c>
       <c r="AE5" t="n">
-        <v>825290.9424984769</v>
+        <v>948440.037854179</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.948043176303885e-07</v>
+        <v>1.970890508422283e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.46484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>746526.3332495341</v>
+        <v>857922.2517853291</v>
       </c>
     </row>
     <row r="6">
@@ -44556,28 +44556,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>585.6436627754158</v>
+        <v>675.6488700595836</v>
       </c>
       <c r="AB6" t="n">
-        <v>801.3034961842583</v>
+        <v>924.4525915399604</v>
       </c>
       <c r="AC6" t="n">
-        <v>724.8282151449522</v>
+        <v>836.2241336807472</v>
       </c>
       <c r="AD6" t="n">
-        <v>585643.6627754158</v>
+        <v>675648.8700595836</v>
       </c>
       <c r="AE6" t="n">
-        <v>801303.4961842583</v>
+        <v>924452.5915399604</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.009470046583469e-06</v>
+        <v>1.999946017611839e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.22395833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>724828.2151449522</v>
+        <v>836224.1336807471</v>
       </c>
     </row>
     <row r="7">
@@ -44662,28 +44662,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>569.9200214162167</v>
+        <v>659.9252287003847</v>
       </c>
       <c r="AB7" t="n">
-        <v>779.7897163985027</v>
+        <v>902.9388117542051</v>
       </c>
       <c r="AC7" t="n">
-        <v>705.3676803071695</v>
+        <v>816.7635988429646</v>
       </c>
       <c r="AD7" t="n">
-        <v>569920.0214162167</v>
+        <v>659925.2287003846</v>
       </c>
       <c r="AE7" t="n">
-        <v>779789.7163985027</v>
+        <v>902938.811754205</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.02066429938642e-06</v>
+        <v>2.022123893408327e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.04817708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>705367.6803071696</v>
+        <v>816763.5988429646</v>
       </c>
     </row>
     <row r="8">
@@ -44768,28 +44768,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>544.5879881181737</v>
+        <v>645.7690723679925</v>
       </c>
       <c r="AB8" t="n">
-        <v>745.1293108696854</v>
+        <v>883.5697341346855</v>
       </c>
       <c r="AC8" t="n">
-        <v>674.0152152358378</v>
+        <v>799.2430788067809</v>
       </c>
       <c r="AD8" t="n">
-        <v>544587.9881181737</v>
+        <v>645769.0723679925</v>
       </c>
       <c r="AE8" t="n">
-        <v>745129.3108696854</v>
+        <v>883569.7341346855</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.028538009784901e-06</v>
+        <v>2.037723163350576e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.92447916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>674015.2152358377</v>
+        <v>799243.0788067809</v>
       </c>
     </row>
     <row r="9">
@@ -44874,28 +44874,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>535.0162692509766</v>
+        <v>625.1067278811649</v>
       </c>
       <c r="AB9" t="n">
-        <v>732.0328628411526</v>
+        <v>855.2986028495041</v>
       </c>
       <c r="AC9" t="n">
-        <v>662.1686738261681</v>
+        <v>773.6701046126752</v>
       </c>
       <c r="AD9" t="n">
-        <v>535016.2692509766</v>
+        <v>625106.727881165</v>
       </c>
       <c r="AE9" t="n">
-        <v>732032.8628411526</v>
+        <v>855298.6028495041</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.033820690882923e-06</v>
+        <v>2.048189127209593e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.83984375</v>
       </c>
       <c r="AH9" t="n">
-        <v>662168.6738261681</v>
+        <v>773670.1046126753</v>
       </c>
     </row>
     <row r="10">
@@ -44980,28 +44980,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>530.4963504423941</v>
+        <v>620.5868090725826</v>
       </c>
       <c r="AB10" t="n">
-        <v>725.8485105225055</v>
+        <v>849.1142505308571</v>
       </c>
       <c r="AC10" t="n">
-        <v>656.5745474130197</v>
+        <v>768.0759781995268</v>
       </c>
       <c r="AD10" t="n">
-        <v>530496.3504423941</v>
+        <v>620586.8090725826</v>
       </c>
       <c r="AE10" t="n">
-        <v>725848.5105225055</v>
+        <v>849114.2505308571</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.035657051455092e-06</v>
+        <v>2.05182729559868e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.81380208333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>656574.5474130197</v>
+        <v>768075.9781995269</v>
       </c>
     </row>
     <row r="11">
@@ -45086,28 +45086,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>532.469629883728</v>
+        <v>622.5600885139164</v>
       </c>
       <c r="AB11" t="n">
-        <v>728.5484385090833</v>
+        <v>851.8141785174348</v>
       </c>
       <c r="AC11" t="n">
-        <v>659.0167980619311</v>
+        <v>770.5182288484384</v>
       </c>
       <c r="AD11" t="n">
-        <v>532469.629883728</v>
+        <v>622560.0885139164</v>
       </c>
       <c r="AE11" t="n">
-        <v>728548.4385090834</v>
+        <v>851814.1785174349</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.03560674020654e-06</v>
+        <v>2.051727619752403e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.81380208333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>659016.7980619312</v>
+        <v>770518.2288484384</v>
       </c>
     </row>
   </sheetData>
